--- a/Saved_file/EM003/2026_01/work_logs_EM003_2026_01.xlsx
+++ b/Saved_file/EM003/2026_01/work_logs_EM003_2026_01.xlsx
@@ -415,7 +415,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J14"/>
+  <dimension ref="A1:J19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -478,17 +478,17 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2026-01-22 14:22:19</t>
+          <t>2026-01-21 09:39:56</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>ANOMALY_DETECTED</t>
+          <t>FACE_VERIFICATION</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Mouse anomaly detected - Score: 0.892</t>
+          <t>Face verification failed - Similarity: 0.288</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -498,12 +498,12 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>SESS_20260122_000</t>
+          <t>SESS_20260121_000</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>CRITICAL</t>
+          <t>WARNING</t>
         </is>
       </c>
       <c r="G2" t="n">
@@ -511,34 +511,34 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>2026-01-22</t>
+          <t>2026-01-21</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>14:22:19</t>
+          <t>09:39:56</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>Mouse</t>
+          <t>Face</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2026-01-14 19:46:42</t>
+          <t>2026-01-18 10:32:34</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>BEHAVIOR_ANOMALY</t>
+          <t>SESSION_START</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Mouse anomaly detected - Score: 0.786</t>
+          <t>Browser suspicious activity detected</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -548,12 +548,12 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>SESS_20260114_001</t>
+          <t>SESS_20260118_001</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>CRITICAL</t>
+          <t>WARNING</t>
         </is>
       </c>
       <c r="G3" t="n">
@@ -561,34 +561,34 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>2026-01-14</t>
+          <t>2026-01-18</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>19:46:42</t>
+          <t>10:32:34</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>Mouse</t>
+          <t>Browser</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2026-01-07 12:34:30</t>
+          <t>2026-01-19 12:18:29</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>BEHAVIOR_ANOMALY</t>
+          <t>ANOMALY_DETECTED</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Mouse anomaly detected - Score: 0.801</t>
+          <t>Mouse anomaly detected - Score: 0.767</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -598,7 +598,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>SESS_20260107_002</t>
+          <t>SESS_20260119_002</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -611,12 +611,12 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>2026-01-07</t>
+          <t>2026-01-19</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>12:34:30</t>
+          <t>12:18:29</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
@@ -628,17 +628,17 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2026-01-07 19:39:33</t>
+          <t>2026-01-23 15:44:50</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>SPOOFING_DETECTED</t>
+          <t>BEHAVIOR_ANOMALY</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Face verification failed - Similarity: 0.337</t>
+          <t>Mouse anomaly detected - Score: 0.879</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -648,12 +648,12 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>SESS_20260107_003</t>
+          <t>SESS_20260123_003</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>WARNING</t>
+          <t>CRITICAL</t>
         </is>
       </c>
       <c r="G5" t="n">
@@ -661,34 +661,34 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>2026-01-07</t>
+          <t>2026-01-23</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>19:39:33</t>
+          <t>15:44:50</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>Face</t>
+          <t>Mouse</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2026-01-26 15:57:04</t>
+          <t>2026-01-14 14:55:41</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>BEHAVIOR_ANOMALY</t>
+          <t>FACE_MISMATCH</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Mouse anomaly detected - Score: 0.879</t>
+          <t>Face verification failed - Similarity: 0.300</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -698,12 +698,12 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>SESS_20260126_004</t>
+          <t>SESS_20260114_004</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>CRITICAL</t>
+          <t>WARNING</t>
         </is>
       </c>
       <c r="G6" t="n">
@@ -711,34 +711,34 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>2026-01-26</t>
+          <t>2026-01-14</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>15:57:04</t>
+          <t>14:55:41</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>Mouse</t>
+          <t>Face</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>2026-01-07 11:56:27</t>
+          <t>2026-01-22 13:28:07</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>ANOMALY_DETECTED</t>
+          <t>FACE_MATCH</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Mouse anomaly detected - Score: 0.791</t>
+          <t>Face verification failed - Similarity: 0.429</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -748,12 +748,12 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>SESS_20260107_005</t>
+          <t>SESS_20260122_005</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>CRITICAL</t>
+          <t>WARNING</t>
         </is>
       </c>
       <c r="G7" t="n">
@@ -761,34 +761,34 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>2026-01-07</t>
+          <t>2026-01-22</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>11:56:27</t>
+          <t>13:28:07</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>Mouse</t>
+          <t>Face</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2026-01-18 20:22:23</t>
+          <t>2026-01-22 15:31:35</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>FACE_MATCH</t>
+          <t>BEHAVIOR_ANOMALY</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Face verification failed - Similarity: 0.265</t>
+          <t>Mouse anomaly detected - Score: 0.791</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -798,12 +798,12 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>SESS_20260118_006</t>
+          <t>SESS_20260122_006</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>WARNING</t>
+          <t>CRITICAL</t>
         </is>
       </c>
       <c r="G8" t="n">
@@ -811,34 +811,34 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>2026-01-18</t>
+          <t>2026-01-22</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>20:22:23</t>
+          <t>15:31:35</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>Face</t>
+          <t>Mouse</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>2026-01-04 08:34:59</t>
+          <t>2026-01-27 13:21:37</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>FACE_MISMATCH</t>
+          <t>BEHAVIOR_ANOMALY</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Face verification failed - Similarity: 0.479</t>
+          <t>Mouse anomaly detected - Score: 0.778</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -848,12 +848,12 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>SESS_20260104_007</t>
+          <t>SESS_20260127_007</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>WARNING</t>
+          <t>CRITICAL</t>
         </is>
       </c>
       <c r="G9" t="n">
@@ -861,34 +861,34 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>2026-01-04</t>
+          <t>2026-01-27</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>08:34:59</t>
+          <t>13:21:37</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>Face</t>
+          <t>Mouse</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>2026-01-24 20:44:18</t>
+          <t>2026-01-28 10:23:25</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>SESSION_START</t>
+          <t>SPOOFING_DETECTED</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Browser suspicious activity detected</t>
+          <t>Face verification failed - Similarity: 0.408</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -898,7 +898,7 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>SESS_20260124_008</t>
+          <t>SESS_20260128_008</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
@@ -911,24 +911,24 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>2026-01-24</t>
+          <t>2026-01-28</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>20:44:18</t>
+          <t>10:23:25</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>Browser</t>
+          <t>Face</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>2026-01-24 13:14:01</t>
+          <t>2026-01-04 18:03:21</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -938,7 +938,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Face verification failed - Similarity: 0.217</t>
+          <t>Face verification failed - Similarity: 0.234</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -948,7 +948,7 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>SESS_20260124_009</t>
+          <t>SESS_20260104_009</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
@@ -961,12 +961,12 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>2026-01-24</t>
+          <t>2026-01-04</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>13:14:01</t>
+          <t>18:03:21</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
@@ -978,17 +978,17 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>2026-01-05 15:44:11</t>
+          <t>2026-01-07 09:54:27</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>SPOOFING_DETECTED</t>
+          <t>SESSION_START</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Face verification failed - Similarity: 0.223</t>
+          <t>Browser suspicious activity detected</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -998,7 +998,7 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>SESS_20260105_010</t>
+          <t>SESS_20260107_010</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
@@ -1011,34 +1011,34 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>2026-01-05</t>
+          <t>2026-01-07</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>15:44:11</t>
+          <t>09:54:27</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>Face</t>
+          <t>Browser</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>2026-01-08 15:19:15</t>
+          <t>2026-01-11 18:00:15</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>TAB_SWITCH</t>
+          <t>SPOOFING_DETECTED</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Browser suspicious activity detected</t>
+          <t>Face verification failed - Similarity: 0.437</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -1048,12 +1048,12 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>SESS_20260108_011</t>
+          <t>SESS_20260111_011</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>CRITICAL</t>
+          <t>WARNING</t>
         </is>
       </c>
       <c r="G13" t="n">
@@ -1061,34 +1061,34 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>2026-01-08</t>
+          <t>2026-01-11</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>15:19:15</t>
+          <t>18:00:15</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>Browser</t>
+          <t>Face</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>2026-01-07 08:35:16</t>
+          <t>2026-01-21 14:38:02</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>RAPID_PAUSE</t>
+          <t>SPOOFING_DETECTED</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Browser suspicious activity detected</t>
+          <t>Face verification failed - Similarity: 0.323</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -1098,12 +1098,12 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>SESS_20260107_012</t>
+          <t>SESS_20260121_012</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>CRITICAL</t>
+          <t>WARNING</t>
         </is>
       </c>
       <c r="G14" t="n">
@@ -1111,17 +1111,267 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>2026-01-07</t>
+          <t>2026-01-21</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>08:35:16</t>
+          <t>14:38:02</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
+          <t>Face</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>2026-01-09 20:55:59</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>MOUSE_SESSION</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Mouse anomaly detected - Score: 0.831</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>EM003</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>SESS_20260109_013</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>CRITICAL</t>
+        </is>
+      </c>
+      <c r="G15" t="n">
+        <v>1</v>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>2026-01-09</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>20:55:59</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>Mouse</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>2026-01-25 20:39:33</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>TAB_SWITCH</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Browser suspicious activity detected</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>EM003</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>SESS_20260125_014</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>CRITICAL</t>
+        </is>
+      </c>
+      <c r="G16" t="n">
+        <v>1</v>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>2026-01-25</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>20:39:33</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
           <t>Browser</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>2026-01-18 14:59:55</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>SPOOFING_DETECTED</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Face verification failed - Similarity: 0.255</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>EM003</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>SESS_20260118_015</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>WARNING</t>
+        </is>
+      </c>
+      <c r="G17" t="n">
+        <v>1</v>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>2026-01-18</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>14:59:55</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>Face</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>2026-01-20 12:53:34</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>SPOOFING_DETECTED</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Face verification failed - Similarity: 0.385</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>EM003</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>SESS_20260120_016</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>WARNING</t>
+        </is>
+      </c>
+      <c r="G18" t="n">
+        <v>1</v>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>2026-01-20</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>12:53:34</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>Face</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>2026-01-28 08:27:34</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>FACE_MATCH</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Face verification failed - Similarity: 0.478</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>EM003</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>SESS_20260128_017</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>WARNING</t>
+        </is>
+      </c>
+      <c r="G19" t="n">
+        <v>1</v>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>2026-01-28</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>08:27:34</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>Face</t>
         </is>
       </c>
     </row>
@@ -1136,7 +1386,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z55"/>
+  <dimension ref="A1:Z73"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1279,7 +1529,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2026-01-01 14:24:34</t>
+          <t>2026-01-01 12:42:45</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -1289,7 +1539,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Mouse session - Score: 0.442</t>
+          <t>Mouse session - Score: 0.423</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -1317,7 +1567,7 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>14:24:34</t>
+          <t>12:42:45</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -1326,58 +1576,58 @@
         </is>
       </c>
       <c r="K2" t="n">
-        <v>28622</v>
+        <v>20657</v>
       </c>
       <c r="L2" t="n">
-        <v>28622</v>
+        <v>20657</v>
       </c>
       <c r="M2" t="n">
-        <v>31065.48</v>
+        <v>14805.24</v>
       </c>
       <c r="N2" t="n">
-        <v>18639.29</v>
+        <v>8883.15</v>
       </c>
       <c r="O2" t="n">
-        <v>12426.19</v>
+        <v>5922.1</v>
       </c>
       <c r="P2" t="n">
-        <v>41</v>
+        <v>18</v>
       </c>
       <c r="Q2" t="n">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="R2" t="n">
-        <v>126.47</v>
+        <v>172.3</v>
       </c>
       <c r="S2" t="n">
-        <v>245.63</v>
+        <v>85.93000000000001</v>
       </c>
       <c r="T2" t="n">
-        <v>39.29</v>
+        <v>37.09</v>
       </c>
       <c r="U2" t="n">
-        <v>147.38</v>
+        <v>51.56</v>
       </c>
       <c r="V2" t="n">
-        <v>98.25</v>
+        <v>34.37</v>
       </c>
       <c r="W2" t="n">
-        <v>11.28</v>
+        <v>12.64</v>
       </c>
       <c r="X2" t="n">
-        <v>9.31</v>
+        <v>12.56</v>
       </c>
       <c r="Y2" t="n">
-        <v>126.47</v>
+        <v>172.3</v>
       </c>
       <c r="Z2" t="n">
-        <v>0.442</v>
+        <v>0.423</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2026-01-01 13:45:41</t>
+          <t>2026-01-01 15:23:10</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -1387,7 +1637,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Mouse session - Score: 0.363</t>
+          <t>Mouse session - Score: 0.293</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -1415,7 +1665,7 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>13:45:41</t>
+          <t>15:23:10</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
@@ -1424,58 +1674,58 @@
         </is>
       </c>
       <c r="K3" t="n">
-        <v>6402</v>
+        <v>21648</v>
       </c>
       <c r="L3" t="n">
-        <v>6402</v>
+        <v>21648</v>
       </c>
       <c r="M3" t="n">
-        <v>28713.33</v>
+        <v>10231.94</v>
       </c>
       <c r="N3" t="n">
-        <v>17228</v>
+        <v>6139.16</v>
       </c>
       <c r="O3" t="n">
-        <v>11485.33</v>
+        <v>4092.78</v>
       </c>
       <c r="P3" t="n">
-        <v>37</v>
+        <v>4</v>
       </c>
       <c r="Q3" t="n">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="R3" t="n">
-        <v>95.38</v>
+        <v>90.01000000000001</v>
       </c>
       <c r="S3" t="n">
-        <v>301.05</v>
+        <v>113.68</v>
       </c>
       <c r="T3" t="n">
-        <v>32.55</v>
+        <v>49.42</v>
       </c>
       <c r="U3" t="n">
-        <v>180.63</v>
+        <v>68.20999999999999</v>
       </c>
       <c r="V3" t="n">
-        <v>120.42</v>
+        <v>45.47</v>
       </c>
       <c r="W3" t="n">
-        <v>15.51</v>
+        <v>9.039999999999999</v>
       </c>
       <c r="X3" t="n">
-        <v>12.22</v>
+        <v>6.9</v>
       </c>
       <c r="Y3" t="n">
-        <v>95.38</v>
+        <v>90.01000000000001</v>
       </c>
       <c r="Z3" t="n">
-        <v>0.363</v>
+        <v>0.293</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2026-01-01 15:58:53</t>
+          <t>2026-01-01 11:40:28</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -1485,7 +1735,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Mouse session - Score: 0.338</t>
+          <t>Mouse session - Score: 0.370</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -1513,7 +1763,7 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>15:58:53</t>
+          <t>11:40:28</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
@@ -1522,58 +1772,58 @@
         </is>
       </c>
       <c r="K4" t="n">
-        <v>12266</v>
+        <v>21679</v>
       </c>
       <c r="L4" t="n">
-        <v>12266</v>
+        <v>21679</v>
       </c>
       <c r="M4" t="n">
-        <v>7614.77</v>
+        <v>29493.35</v>
       </c>
       <c r="N4" t="n">
-        <v>4568.86</v>
+        <v>17696.01</v>
       </c>
       <c r="O4" t="n">
-        <v>3045.91</v>
+        <v>11797.34</v>
       </c>
       <c r="P4" t="n">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="Q4" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="R4" t="n">
-        <v>142.79</v>
+        <v>103.31</v>
       </c>
       <c r="S4" t="n">
-        <v>53.33</v>
+        <v>285.47</v>
       </c>
       <c r="T4" t="n">
-        <v>32.95</v>
+        <v>45.87</v>
       </c>
       <c r="U4" t="n">
-        <v>32</v>
+        <v>171.28</v>
       </c>
       <c r="V4" t="n">
-        <v>21.33</v>
+        <v>114.19</v>
       </c>
       <c r="W4" t="n">
-        <v>17.09</v>
+        <v>24.13</v>
       </c>
       <c r="X4" t="n">
-        <v>23.52</v>
+        <v>17</v>
       </c>
       <c r="Y4" t="n">
-        <v>142.79</v>
+        <v>103.31</v>
       </c>
       <c r="Z4" t="n">
-        <v>0.338</v>
+        <v>0.37</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2026-01-02 13:50:37</t>
+          <t>2026-01-01 17:25:30</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1583,7 +1833,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Mouse session - Score: 0.390</t>
+          <t>Mouse session - Score: 0.354</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -1593,7 +1843,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>MOUSE_20260102_000</t>
+          <t>MOUSE_20260101_003</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -1606,12 +1856,12 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>2026-01-02</t>
+          <t>2026-01-01</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>13:50:37</t>
+          <t>17:25:30</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
@@ -1620,58 +1870,58 @@
         </is>
       </c>
       <c r="K5" t="n">
-        <v>14144</v>
+        <v>19084</v>
       </c>
       <c r="L5" t="n">
-        <v>14144</v>
+        <v>19084</v>
       </c>
       <c r="M5" t="n">
-        <v>16298.64</v>
+        <v>25034.73</v>
       </c>
       <c r="N5" t="n">
-        <v>9779.190000000001</v>
+        <v>15020.84</v>
       </c>
       <c r="O5" t="n">
-        <v>6519.46</v>
+        <v>10013.89</v>
       </c>
       <c r="P5" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="R5" t="n">
-        <v>68.06999999999999</v>
+        <v>105.1</v>
       </c>
       <c r="S5" t="n">
-        <v>239.44</v>
+        <v>238.21</v>
       </c>
       <c r="T5" t="n">
-        <v>40.74</v>
+        <v>30.08</v>
       </c>
       <c r="U5" t="n">
-        <v>143.67</v>
+        <v>142.92</v>
       </c>
       <c r="V5" t="n">
-        <v>95.78</v>
+        <v>95.28</v>
       </c>
       <c r="W5" t="n">
-        <v>18.11</v>
+        <v>27.13</v>
       </c>
       <c r="X5" t="n">
-        <v>13.08</v>
+        <v>23.09</v>
       </c>
       <c r="Y5" t="n">
-        <v>68.06999999999999</v>
+        <v>105.1</v>
       </c>
       <c r="Z5" t="n">
-        <v>0.39</v>
+        <v>0.354</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2026-01-02 13:42:17</t>
+          <t>2026-01-02 12:04:07</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1681,7 +1931,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Mouse session - Score: 0.406</t>
+          <t>Mouse session - Score: 0.448</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -1691,7 +1941,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>MOUSE_20260102_001</t>
+          <t>MOUSE_20260102_000</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -1709,7 +1959,7 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>13:42:17</t>
+          <t>12:04:07</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
@@ -1718,58 +1968,58 @@
         </is>
       </c>
       <c r="K6" t="n">
-        <v>11666</v>
+        <v>5798</v>
       </c>
       <c r="L6" t="n">
-        <v>11666</v>
+        <v>5798</v>
       </c>
       <c r="M6" t="n">
-        <v>10957.98</v>
+        <v>31353.95</v>
       </c>
       <c r="N6" t="n">
-        <v>6574.79</v>
+        <v>18812.37</v>
       </c>
       <c r="O6" t="n">
-        <v>4383.19</v>
+        <v>12541.58</v>
       </c>
       <c r="P6" t="n">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="Q6" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="R6" t="n">
-        <v>62.8</v>
+        <v>150.53</v>
       </c>
       <c r="S6" t="n">
-        <v>174.49</v>
+        <v>208.29</v>
       </c>
       <c r="T6" t="n">
-        <v>31.41</v>
+        <v>6.74</v>
       </c>
       <c r="U6" t="n">
-        <v>104.69</v>
+        <v>124.98</v>
       </c>
       <c r="V6" t="n">
-        <v>69.79000000000001</v>
+        <v>83.31999999999999</v>
       </c>
       <c r="W6" t="n">
-        <v>28.97</v>
+        <v>22.96</v>
       </c>
       <c r="X6" t="n">
-        <v>18.62</v>
+        <v>3.78</v>
       </c>
       <c r="Y6" t="n">
-        <v>62.8</v>
+        <v>150.53</v>
       </c>
       <c r="Z6" t="n">
-        <v>0.406</v>
+        <v>0.448</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>2026-01-02 10:00:13</t>
+          <t>2026-01-02 13:18:38</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1779,7 +2029,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Mouse session - Score: 0.261</t>
+          <t>Mouse session - Score: 0.427</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -1789,7 +2039,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>MOUSE_20260102_002</t>
+          <t>MOUSE_20260102_001</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -1807,7 +2057,7 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>10:00:13</t>
+          <t>13:18:38</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
@@ -1816,58 +2066,58 @@
         </is>
       </c>
       <c r="K7" t="n">
-        <v>7668</v>
+        <v>26932</v>
       </c>
       <c r="L7" t="n">
-        <v>7668</v>
+        <v>26932</v>
       </c>
       <c r="M7" t="n">
-        <v>10577.36</v>
+        <v>17486.1</v>
       </c>
       <c r="N7" t="n">
-        <v>6346.41</v>
+        <v>10491.66</v>
       </c>
       <c r="O7" t="n">
-        <v>4230.94</v>
+        <v>6994.44</v>
       </c>
       <c r="P7" t="n">
-        <v>6</v>
+        <v>47</v>
       </c>
       <c r="Q7" t="n">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="R7" t="n">
-        <v>89.76000000000001</v>
+        <v>54.1</v>
       </c>
       <c r="S7" t="n">
-        <v>117.84</v>
+        <v>323.24</v>
       </c>
       <c r="T7" t="n">
-        <v>16.91</v>
+        <v>41.8</v>
       </c>
       <c r="U7" t="n">
-        <v>70.70999999999999</v>
+        <v>193.94</v>
       </c>
       <c r="V7" t="n">
-        <v>47.14</v>
+        <v>129.3</v>
       </c>
       <c r="W7" t="n">
-        <v>16.4</v>
+        <v>4.49</v>
       </c>
       <c r="X7" t="n">
-        <v>10.72</v>
+        <v>28.29</v>
       </c>
       <c r="Y7" t="n">
-        <v>89.76000000000001</v>
+        <v>54.1</v>
       </c>
       <c r="Z7" t="n">
-        <v>0.261</v>
+        <v>0.427</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2026-01-03 14:47:00</t>
+          <t>2026-01-02 17:03:01</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -1877,7 +2127,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Mouse session - Score: 0.355</t>
+          <t>Mouse session - Score: 0.425</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -1887,7 +2137,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>MOUSE_20260103_000</t>
+          <t>MOUSE_20260102_002</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -1900,12 +2150,12 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>2026-01-03</t>
+          <t>2026-01-02</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>14:47:00</t>
+          <t>17:03:01</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
@@ -1914,58 +2164,58 @@
         </is>
       </c>
       <c r="K8" t="n">
-        <v>26073</v>
+        <v>23717</v>
       </c>
       <c r="L8" t="n">
-        <v>26073</v>
+        <v>23717</v>
       </c>
       <c r="M8" t="n">
-        <v>5195.86</v>
+        <v>17173.28</v>
       </c>
       <c r="N8" t="n">
-        <v>3117.52</v>
+        <v>10303.97</v>
       </c>
       <c r="O8" t="n">
-        <v>2078.34</v>
+        <v>6869.31</v>
       </c>
       <c r="P8" t="n">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="Q8" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="R8" t="n">
-        <v>117.34</v>
+        <v>31.72</v>
       </c>
       <c r="S8" t="n">
-        <v>44.28</v>
+        <v>541.36</v>
       </c>
       <c r="T8" t="n">
-        <v>39.16</v>
+        <v>28.41</v>
       </c>
       <c r="U8" t="n">
-        <v>26.57</v>
+        <v>324.81</v>
       </c>
       <c r="V8" t="n">
-        <v>17.71</v>
+        <v>216.54</v>
       </c>
       <c r="W8" t="n">
-        <v>15.66</v>
+        <v>11.35</v>
       </c>
       <c r="X8" t="n">
-        <v>11.89</v>
+        <v>23.92</v>
       </c>
       <c r="Y8" t="n">
-        <v>117.34</v>
+        <v>31.72</v>
       </c>
       <c r="Z8" t="n">
-        <v>0.355</v>
+        <v>0.425</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>2026-01-03 10:08:56</t>
+          <t>2026-01-02 14:36:55</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -1975,7 +2225,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Mouse session - Score: 0.424</t>
+          <t>Mouse session - Score: 0.448</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -1985,7 +2235,7 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>MOUSE_20260103_001</t>
+          <t>MOUSE_20260102_003</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
@@ -1998,12 +2248,12 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>2026-01-03</t>
+          <t>2026-01-02</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>10:08:56</t>
+          <t>14:36:55</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
@@ -2012,58 +2262,58 @@
         </is>
       </c>
       <c r="K9" t="n">
-        <v>28341</v>
+        <v>17739</v>
       </c>
       <c r="L9" t="n">
-        <v>28341</v>
+        <v>17739</v>
       </c>
       <c r="M9" t="n">
-        <v>29571.95</v>
+        <v>20851.92</v>
       </c>
       <c r="N9" t="n">
-        <v>17743.17</v>
+        <v>12511.15</v>
       </c>
       <c r="O9" t="n">
-        <v>11828.78</v>
+        <v>8340.77</v>
       </c>
       <c r="P9" t="n">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="R9" t="n">
-        <v>62.93</v>
+        <v>164.91</v>
       </c>
       <c r="S9" t="n">
-        <v>469.89</v>
+        <v>126.44</v>
       </c>
       <c r="T9" t="n">
-        <v>44.12</v>
+        <v>5.82</v>
       </c>
       <c r="U9" t="n">
-        <v>281.93</v>
+        <v>75.87</v>
       </c>
       <c r="V9" t="n">
-        <v>187.96</v>
+        <v>50.58</v>
       </c>
       <c r="W9" t="n">
-        <v>21.55</v>
+        <v>18.8</v>
       </c>
       <c r="X9" t="n">
-        <v>12.51</v>
+        <v>4.63</v>
       </c>
       <c r="Y9" t="n">
-        <v>62.93</v>
+        <v>164.91</v>
       </c>
       <c r="Z9" t="n">
-        <v>0.424</v>
+        <v>0.448</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>2026-01-03 09:37:39</t>
+          <t>2026-01-03 09:32:25</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -2073,7 +2323,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Mouse session - Score: 0.273</t>
+          <t>Mouse session - Score: 0.299</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -2083,7 +2333,7 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>MOUSE_20260103_002</t>
+          <t>MOUSE_20260103_000</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
@@ -2101,7 +2351,7 @@
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>09:37:39</t>
+          <t>09:32:25</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
@@ -2110,58 +2360,58 @@
         </is>
       </c>
       <c r="K10" t="n">
-        <v>26070</v>
+        <v>22197</v>
       </c>
       <c r="L10" t="n">
-        <v>26070</v>
+        <v>22197</v>
       </c>
       <c r="M10" t="n">
-        <v>17927.34</v>
+        <v>28487.05</v>
       </c>
       <c r="N10" t="n">
-        <v>10756.4</v>
+        <v>17092.23</v>
       </c>
       <c r="O10" t="n">
-        <v>7170.93</v>
+        <v>11394.82</v>
       </c>
       <c r="P10" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="Q10" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="R10" t="n">
-        <v>171.27</v>
+        <v>90.23</v>
       </c>
       <c r="S10" t="n">
-        <v>104.67</v>
+        <v>315.7</v>
       </c>
       <c r="T10" t="n">
-        <v>47.57</v>
+        <v>12.2</v>
       </c>
       <c r="U10" t="n">
-        <v>62.8</v>
+        <v>189.42</v>
       </c>
       <c r="V10" t="n">
-        <v>41.87</v>
+        <v>126.28</v>
       </c>
       <c r="W10" t="n">
-        <v>22.06</v>
+        <v>12.19</v>
       </c>
       <c r="X10" t="n">
-        <v>7.32</v>
+        <v>11.74</v>
       </c>
       <c r="Y10" t="n">
-        <v>171.27</v>
+        <v>90.23</v>
       </c>
       <c r="Z10" t="n">
-        <v>0.273</v>
+        <v>0.299</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>2026-01-04 16:45:42</t>
+          <t>2026-01-03 14:22:23</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -2171,7 +2421,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Mouse session - Score: 0.320</t>
+          <t>Mouse session - Score: 0.395</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -2181,7 +2431,7 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>MOUSE_20260104_000</t>
+          <t>MOUSE_20260103_001</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
@@ -2194,12 +2444,12 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>2026-01-04</t>
+          <t>2026-01-03</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>16:45:42</t>
+          <t>14:22:23</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
@@ -2208,58 +2458,58 @@
         </is>
       </c>
       <c r="K11" t="n">
-        <v>8768</v>
+        <v>23253</v>
       </c>
       <c r="L11" t="n">
-        <v>8768</v>
+        <v>23253</v>
       </c>
       <c r="M11" t="n">
-        <v>38807.01</v>
+        <v>26770.68</v>
       </c>
       <c r="N11" t="n">
-        <v>23284.21</v>
+        <v>16062.41</v>
       </c>
       <c r="O11" t="n">
-        <v>15522.8</v>
+        <v>10708.27</v>
       </c>
       <c r="P11" t="n">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="Q11" t="n">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="R11" t="n">
-        <v>55.06</v>
+        <v>34.44</v>
       </c>
       <c r="S11" t="n">
-        <v>704.8200000000001</v>
+        <v>777.24</v>
       </c>
       <c r="T11" t="n">
-        <v>8.15</v>
+        <v>23.67</v>
       </c>
       <c r="U11" t="n">
-        <v>422.89</v>
+        <v>466.34</v>
       </c>
       <c r="V11" t="n">
-        <v>281.93</v>
+        <v>310.9</v>
       </c>
       <c r="W11" t="n">
-        <v>3.22</v>
+        <v>27.68</v>
       </c>
       <c r="X11" t="n">
-        <v>22.28</v>
+        <v>16.25</v>
       </c>
       <c r="Y11" t="n">
-        <v>55.06</v>
+        <v>34.44</v>
       </c>
       <c r="Z11" t="n">
-        <v>0.32</v>
+        <v>0.395</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>2026-01-04 13:28:40</t>
+          <t>2026-01-03 16:55:31</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -2269,7 +2519,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Mouse session - Score: 0.420</t>
+          <t>Mouse session - Score: 0.320</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -2279,7 +2529,7 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>MOUSE_20260104_001</t>
+          <t>MOUSE_20260103_002</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
@@ -2292,12 +2542,12 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>2026-01-04</t>
+          <t>2026-01-03</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>13:28:40</t>
+          <t>16:55:31</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
@@ -2306,58 +2556,58 @@
         </is>
       </c>
       <c r="K12" t="n">
-        <v>17437</v>
+        <v>25701</v>
       </c>
       <c r="L12" t="n">
-        <v>17437</v>
+        <v>25701</v>
       </c>
       <c r="M12" t="n">
-        <v>18998.77</v>
+        <v>7227.4</v>
       </c>
       <c r="N12" t="n">
-        <v>11399.26</v>
+        <v>4336.44</v>
       </c>
       <c r="O12" t="n">
-        <v>7599.51</v>
+        <v>2890.96</v>
       </c>
       <c r="P12" t="n">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="Q12" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="R12" t="n">
-        <v>114</v>
+        <v>132.76</v>
       </c>
       <c r="S12" t="n">
-        <v>166.65</v>
+        <v>54.44</v>
       </c>
       <c r="T12" t="n">
-        <v>21.7</v>
+        <v>48.77</v>
       </c>
       <c r="U12" t="n">
-        <v>99.98999999999999</v>
+        <v>32.66</v>
       </c>
       <c r="V12" t="n">
-        <v>66.66</v>
+        <v>21.78</v>
       </c>
       <c r="W12" t="n">
-        <v>16.87</v>
+        <v>4.41</v>
       </c>
       <c r="X12" t="n">
-        <v>19.58</v>
+        <v>28.35</v>
       </c>
       <c r="Y12" t="n">
-        <v>114</v>
+        <v>132.76</v>
       </c>
       <c r="Z12" t="n">
-        <v>0.42</v>
+        <v>0.32</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>2026-01-04 10:32:00</t>
+          <t>2026-01-03 11:16:45</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -2367,7 +2617,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Mouse session - Score: 0.378</t>
+          <t>Mouse session - Score: 0.365</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -2377,7 +2627,7 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>MOUSE_20260104_002</t>
+          <t>MOUSE_20260103_003</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
@@ -2390,12 +2640,12 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>2026-01-04</t>
+          <t>2026-01-03</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>10:32:00</t>
+          <t>11:16:45</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
@@ -2404,58 +2654,58 @@
         </is>
       </c>
       <c r="K13" t="n">
-        <v>8479</v>
+        <v>28735</v>
       </c>
       <c r="L13" t="n">
-        <v>8479</v>
+        <v>28735</v>
       </c>
       <c r="M13" t="n">
-        <v>12515.23</v>
+        <v>27501.46</v>
       </c>
       <c r="N13" t="n">
-        <v>7509.14</v>
+        <v>16500.88</v>
       </c>
       <c r="O13" t="n">
-        <v>5006.09</v>
+        <v>11000.58</v>
       </c>
       <c r="P13" t="n">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="Q13" t="n">
-        <v>24</v>
+        <v>7</v>
       </c>
       <c r="R13" t="n">
-        <v>89.94</v>
+        <v>165.2</v>
       </c>
       <c r="S13" t="n">
-        <v>139.15</v>
+        <v>166.48</v>
       </c>
       <c r="T13" t="n">
-        <v>45.33</v>
+        <v>48.66</v>
       </c>
       <c r="U13" t="n">
-        <v>83.48999999999999</v>
+        <v>99.89</v>
       </c>
       <c r="V13" t="n">
-        <v>55.66</v>
+        <v>66.59</v>
       </c>
       <c r="W13" t="n">
-        <v>19.82</v>
+        <v>16.77</v>
       </c>
       <c r="X13" t="n">
-        <v>3.19</v>
+        <v>28.77</v>
       </c>
       <c r="Y13" t="n">
-        <v>89.94</v>
+        <v>165.2</v>
       </c>
       <c r="Z13" t="n">
-        <v>0.378</v>
+        <v>0.365</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>2026-01-05 11:00:33</t>
+          <t>2026-01-04 12:23:14</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -2465,7 +2715,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Mouse session - Score: 0.341</t>
+          <t>Mouse session - Score: 0.441</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -2475,7 +2725,7 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>MOUSE_20260105_000</t>
+          <t>MOUSE_20260104_000</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
@@ -2488,12 +2738,12 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>2026-01-05</t>
+          <t>2026-01-04</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>11:00:33</t>
+          <t>12:23:14</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
@@ -2502,58 +2752,58 @@
         </is>
       </c>
       <c r="K14" t="n">
-        <v>9937</v>
+        <v>27478</v>
       </c>
       <c r="L14" t="n">
-        <v>9937</v>
+        <v>27478</v>
       </c>
       <c r="M14" t="n">
-        <v>28066.74</v>
+        <v>9667.74</v>
       </c>
       <c r="N14" t="n">
-        <v>16840.05</v>
+        <v>5800.65</v>
       </c>
       <c r="O14" t="n">
-        <v>11226.7</v>
+        <v>3867.1</v>
       </c>
       <c r="P14" t="n">
-        <v>46</v>
+        <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R14" t="n">
-        <v>93.86</v>
+        <v>50.29</v>
       </c>
       <c r="S14" t="n">
-        <v>299.03</v>
+        <v>192.24</v>
       </c>
       <c r="T14" t="n">
-        <v>25.11</v>
+        <v>43.06</v>
       </c>
       <c r="U14" t="n">
-        <v>179.42</v>
+        <v>115.34</v>
       </c>
       <c r="V14" t="n">
-        <v>119.61</v>
+        <v>76.90000000000001</v>
       </c>
       <c r="W14" t="n">
-        <v>6.87</v>
+        <v>21.46</v>
       </c>
       <c r="X14" t="n">
-        <v>10.16</v>
+        <v>26.47</v>
       </c>
       <c r="Y14" t="n">
-        <v>93.86</v>
+        <v>50.29</v>
       </c>
       <c r="Z14" t="n">
-        <v>0.341</v>
+        <v>0.441</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>2026-01-05 11:58:09</t>
+          <t>2026-01-04 13:59:14</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -2563,7 +2813,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Mouse session - Score: 0.879</t>
+          <t>Mouse session - Score: 0.438</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -2573,25 +2823,25 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>MOUSE_20260105_001</t>
+          <t>MOUSE_20260104_001</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>CRITICAL</t>
+          <t>INFO</t>
         </is>
       </c>
       <c r="G15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>2026-01-05</t>
+          <t>2026-01-04</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>11:58:09</t>
+          <t>13:59:14</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
@@ -2600,58 +2850,58 @@
         </is>
       </c>
       <c r="K15" t="n">
-        <v>15714</v>
+        <v>6468</v>
       </c>
       <c r="L15" t="n">
-        <v>15714</v>
+        <v>6468</v>
       </c>
       <c r="M15" t="n">
-        <v>22907.05</v>
+        <v>9596.26</v>
       </c>
       <c r="N15" t="n">
-        <v>13744.23</v>
+        <v>5757.76</v>
       </c>
       <c r="O15" t="n">
-        <v>9162.82</v>
+        <v>3838.5</v>
       </c>
       <c r="P15" t="n">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="Q15" t="n">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="R15" t="n">
-        <v>42.9</v>
+        <v>42.59</v>
       </c>
       <c r="S15" t="n">
-        <v>533.92</v>
+        <v>225.33</v>
       </c>
       <c r="T15" t="n">
-        <v>25.15</v>
+        <v>18.29</v>
       </c>
       <c r="U15" t="n">
-        <v>320.35</v>
+        <v>135.2</v>
       </c>
       <c r="V15" t="n">
-        <v>213.57</v>
+        <v>90.13</v>
       </c>
       <c r="W15" t="n">
-        <v>20.91</v>
+        <v>8.49</v>
       </c>
       <c r="X15" t="n">
-        <v>3.46</v>
+        <v>11.71</v>
       </c>
       <c r="Y15" t="n">
-        <v>42.9</v>
+        <v>42.59</v>
       </c>
       <c r="Z15" t="n">
-        <v>0.879</v>
+        <v>0.438</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>2026-01-05 17:02:43</t>
+          <t>2026-01-04 12:35:47</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -2661,7 +2911,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Mouse session - Score: 0.422</t>
+          <t>Mouse session - Score: 0.272</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -2671,7 +2921,7 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>MOUSE_20260105_002</t>
+          <t>MOUSE_20260104_002</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
@@ -2684,12 +2934,12 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>2026-01-05</t>
+          <t>2026-01-04</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>17:02:43</t>
+          <t>12:35:47</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
@@ -2698,58 +2948,58 @@
         </is>
       </c>
       <c r="K16" t="n">
-        <v>22970</v>
+        <v>17749</v>
       </c>
       <c r="L16" t="n">
-        <v>22970</v>
+        <v>17749</v>
       </c>
       <c r="M16" t="n">
-        <v>34035.84</v>
+        <v>35924.1</v>
       </c>
       <c r="N16" t="n">
-        <v>20421.5</v>
+        <v>21554.46</v>
       </c>
       <c r="O16" t="n">
-        <v>13614.34</v>
+        <v>14369.64</v>
       </c>
       <c r="P16" t="n">
-        <v>27</v>
+        <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="R16" t="n">
-        <v>101.44</v>
+        <v>76.2</v>
       </c>
       <c r="S16" t="n">
-        <v>335.52</v>
+        <v>471.43</v>
       </c>
       <c r="T16" t="n">
-        <v>9.43</v>
+        <v>33.33</v>
       </c>
       <c r="U16" t="n">
-        <v>201.31</v>
+        <v>282.86</v>
       </c>
       <c r="V16" t="n">
-        <v>134.21</v>
+        <v>188.57</v>
       </c>
       <c r="W16" t="n">
-        <v>10.77</v>
+        <v>12.51</v>
       </c>
       <c r="X16" t="n">
-        <v>24.89</v>
+        <v>4.13</v>
       </c>
       <c r="Y16" t="n">
-        <v>101.44</v>
+        <v>76.2</v>
       </c>
       <c r="Z16" t="n">
-        <v>0.422</v>
+        <v>0.272</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>2026-01-06 16:35:40</t>
+          <t>2026-01-04 10:41:22</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -2759,7 +3009,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Mouse session - Score: 0.328</t>
+          <t>Mouse session - Score: 0.449</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -2769,7 +3019,7 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>MOUSE_20260106_000</t>
+          <t>MOUSE_20260104_003</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
@@ -2782,12 +3032,12 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>2026-01-06</t>
+          <t>2026-01-04</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>16:35:40</t>
+          <t>10:41:22</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
@@ -2796,58 +3046,58 @@
         </is>
       </c>
       <c r="K17" t="n">
-        <v>21126</v>
+        <v>6307</v>
       </c>
       <c r="L17" t="n">
-        <v>21126</v>
+        <v>6307</v>
       </c>
       <c r="M17" t="n">
-        <v>25412.54</v>
+        <v>34876.23</v>
       </c>
       <c r="N17" t="n">
-        <v>15247.52</v>
+        <v>20925.74</v>
       </c>
       <c r="O17" t="n">
-        <v>10165.01</v>
+        <v>13950.49</v>
       </c>
       <c r="P17" t="n">
-        <v>9</v>
+        <v>38</v>
       </c>
       <c r="Q17" t="n">
-        <v>3</v>
+        <v>28</v>
       </c>
       <c r="R17" t="n">
-        <v>160.09</v>
+        <v>49.12</v>
       </c>
       <c r="S17" t="n">
-        <v>158.74</v>
+        <v>710.0599999999999</v>
       </c>
       <c r="T17" t="n">
-        <v>46.45</v>
+        <v>25.27</v>
       </c>
       <c r="U17" t="n">
-        <v>95.25</v>
+        <v>426.04</v>
       </c>
       <c r="V17" t="n">
-        <v>63.5</v>
+        <v>284.03</v>
       </c>
       <c r="W17" t="n">
-        <v>3.32</v>
+        <v>24.31</v>
       </c>
       <c r="X17" t="n">
-        <v>23.57</v>
+        <v>17.29</v>
       </c>
       <c r="Y17" t="n">
-        <v>160.09</v>
+        <v>49.12</v>
       </c>
       <c r="Z17" t="n">
-        <v>0.328</v>
+        <v>0.449</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>2026-01-06 14:18:39</t>
+          <t>2026-01-05 14:03:07</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -2857,7 +3107,7 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Mouse session - Score: 0.310</t>
+          <t>Mouse session - Score: 0.381</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -2867,7 +3117,7 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>MOUSE_20260106_001</t>
+          <t>MOUSE_20260105_000</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
@@ -2880,12 +3130,12 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>2026-01-06</t>
+          <t>2026-01-05</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>14:18:39</t>
+          <t>14:03:07</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
@@ -2894,58 +3144,58 @@
         </is>
       </c>
       <c r="K18" t="n">
-        <v>8012</v>
+        <v>6063</v>
       </c>
       <c r="L18" t="n">
-        <v>8012</v>
+        <v>6063</v>
       </c>
       <c r="M18" t="n">
-        <v>26001.16</v>
+        <v>13597.79</v>
       </c>
       <c r="N18" t="n">
-        <v>15600.69</v>
+        <v>8158.67</v>
       </c>
       <c r="O18" t="n">
-        <v>10400.46</v>
+        <v>5439.12</v>
       </c>
       <c r="P18" t="n">
-        <v>50</v>
+        <v>26</v>
       </c>
       <c r="Q18" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="R18" t="n">
-        <v>43.97</v>
+        <v>31.13</v>
       </c>
       <c r="S18" t="n">
-        <v>591.38</v>
+        <v>436.84</v>
       </c>
       <c r="T18" t="n">
-        <v>23.23</v>
+        <v>36</v>
       </c>
       <c r="U18" t="n">
-        <v>354.83</v>
+        <v>262.1</v>
       </c>
       <c r="V18" t="n">
-        <v>236.55</v>
+        <v>174.74</v>
       </c>
       <c r="W18" t="n">
-        <v>11.16</v>
+        <v>13.39</v>
       </c>
       <c r="X18" t="n">
-        <v>15.15</v>
+        <v>28.55</v>
       </c>
       <c r="Y18" t="n">
-        <v>43.97</v>
+        <v>31.13</v>
       </c>
       <c r="Z18" t="n">
-        <v>0.31</v>
+        <v>0.381</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>2026-01-06 12:25:04</t>
+          <t>2026-01-05 11:40:41</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -2955,7 +3205,7 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Mouse session - Score: 0.435</t>
+          <t>Mouse session - Score: 0.296</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -2965,7 +3215,7 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>MOUSE_20260106_002</t>
+          <t>MOUSE_20260105_001</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
@@ -2978,12 +3228,12 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>2026-01-06</t>
+          <t>2026-01-05</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>12:25:04</t>
+          <t>11:40:41</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
@@ -2992,58 +3242,58 @@
         </is>
       </c>
       <c r="K19" t="n">
-        <v>12919</v>
+        <v>22822</v>
       </c>
       <c r="L19" t="n">
-        <v>12919</v>
+        <v>22822</v>
       </c>
       <c r="M19" t="n">
-        <v>31447.13</v>
+        <v>8539.540000000001</v>
       </c>
       <c r="N19" t="n">
-        <v>18868.28</v>
+        <v>5123.72</v>
       </c>
       <c r="O19" t="n">
-        <v>12578.85</v>
+        <v>3415.82</v>
       </c>
       <c r="P19" t="n">
-        <v>39</v>
+        <v>17</v>
       </c>
       <c r="Q19" t="n">
-        <v>27</v>
+        <v>4</v>
       </c>
       <c r="R19" t="n">
-        <v>138.55</v>
+        <v>75.56</v>
       </c>
       <c r="S19" t="n">
-        <v>226.98</v>
+        <v>113.02</v>
       </c>
       <c r="T19" t="n">
-        <v>41.77</v>
+        <v>11.61</v>
       </c>
       <c r="U19" t="n">
-        <v>136.19</v>
+        <v>67.81</v>
       </c>
       <c r="V19" t="n">
-        <v>90.79000000000001</v>
+        <v>45.21</v>
       </c>
       <c r="W19" t="n">
-        <v>24.07</v>
+        <v>28.52</v>
       </c>
       <c r="X19" t="n">
-        <v>10.36</v>
+        <v>24.99</v>
       </c>
       <c r="Y19" t="n">
-        <v>138.55</v>
+        <v>75.56</v>
       </c>
       <c r="Z19" t="n">
-        <v>0.435</v>
+        <v>0.296</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>2026-01-07 09:42:42</t>
+          <t>2026-01-05 15:20:00</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -3053,7 +3303,7 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Mouse session - Score: 0.389</t>
+          <t>Mouse session - Score: 0.335</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -3063,7 +3313,7 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>MOUSE_20260107_000</t>
+          <t>MOUSE_20260105_002</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
@@ -3076,12 +3326,12 @@
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>2026-01-07</t>
+          <t>2026-01-05</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>09:42:42</t>
+          <t>15:20:00</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
@@ -3090,58 +3340,58 @@
         </is>
       </c>
       <c r="K20" t="n">
-        <v>19947</v>
+        <v>29706</v>
       </c>
       <c r="L20" t="n">
-        <v>19947</v>
+        <v>29706</v>
       </c>
       <c r="M20" t="n">
-        <v>39688.67</v>
+        <v>13617.52</v>
       </c>
       <c r="N20" t="n">
-        <v>23813.2</v>
+        <v>8170.51</v>
       </c>
       <c r="O20" t="n">
-        <v>15875.47</v>
+        <v>5447.01</v>
       </c>
       <c r="P20" t="n">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="Q20" t="n">
-        <v>27</v>
+        <v>6</v>
       </c>
       <c r="R20" t="n">
-        <v>171.19</v>
+        <v>96.51000000000001</v>
       </c>
       <c r="S20" t="n">
-        <v>231.84</v>
+        <v>141.1</v>
       </c>
       <c r="T20" t="n">
-        <v>7.1</v>
+        <v>47.79</v>
       </c>
       <c r="U20" t="n">
-        <v>139.1</v>
+        <v>84.66</v>
       </c>
       <c r="V20" t="n">
-        <v>92.73999999999999</v>
+        <v>56.44</v>
       </c>
       <c r="W20" t="n">
-        <v>25.89</v>
+        <v>24.13</v>
       </c>
       <c r="X20" t="n">
-        <v>2.19</v>
+        <v>13.82</v>
       </c>
       <c r="Y20" t="n">
-        <v>171.19</v>
+        <v>96.51000000000001</v>
       </c>
       <c r="Z20" t="n">
-        <v>0.389</v>
+        <v>0.335</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>2026-01-07 13:35:27</t>
+          <t>2026-01-05 16:02:17</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -3151,7 +3401,7 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Mouse session - Score: 0.429</t>
+          <t>Mouse session - Score: 0.292</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -3161,7 +3411,7 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>MOUSE_20260107_001</t>
+          <t>MOUSE_20260105_003</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
@@ -3174,12 +3424,12 @@
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>2026-01-07</t>
+          <t>2026-01-05</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>13:35:27</t>
+          <t>16:02:17</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
@@ -3188,58 +3438,58 @@
         </is>
       </c>
       <c r="K21" t="n">
-        <v>18361</v>
+        <v>25285</v>
       </c>
       <c r="L21" t="n">
-        <v>18361</v>
+        <v>25285</v>
       </c>
       <c r="M21" t="n">
-        <v>15584.57</v>
+        <v>10586.23</v>
       </c>
       <c r="N21" t="n">
-        <v>9350.74</v>
+        <v>6351.74</v>
       </c>
       <c r="O21" t="n">
-        <v>6233.83</v>
+        <v>4234.49</v>
       </c>
       <c r="P21" t="n">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="Q21" t="n">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="R21" t="n">
-        <v>125.06</v>
+        <v>137.49</v>
       </c>
       <c r="S21" t="n">
-        <v>124.61</v>
+        <v>76.98999999999999</v>
       </c>
       <c r="T21" t="n">
-        <v>24.23</v>
+        <v>32.57</v>
       </c>
       <c r="U21" t="n">
-        <v>74.77</v>
+        <v>46.2</v>
       </c>
       <c r="V21" t="n">
-        <v>49.84</v>
+        <v>30.8</v>
       </c>
       <c r="W21" t="n">
-        <v>16.74</v>
+        <v>20.81</v>
       </c>
       <c r="X21" t="n">
-        <v>23.02</v>
+        <v>6.78</v>
       </c>
       <c r="Y21" t="n">
-        <v>125.06</v>
+        <v>137.49</v>
       </c>
       <c r="Z21" t="n">
-        <v>0.429</v>
+        <v>0.292</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>2026-01-07 10:43:35</t>
+          <t>2026-01-06 17:07:57</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -3249,7 +3499,7 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Mouse session - Score: 0.288</t>
+          <t>Mouse session - Score: 0.342</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -3259,7 +3509,7 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>MOUSE_20260107_002</t>
+          <t>MOUSE_20260106_000</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
@@ -3272,12 +3522,12 @@
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>2026-01-07</t>
+          <t>2026-01-06</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>10:43:35</t>
+          <t>17:07:57</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
@@ -3286,58 +3536,58 @@
         </is>
       </c>
       <c r="K22" t="n">
-        <v>11694</v>
+        <v>5818</v>
       </c>
       <c r="L22" t="n">
-        <v>11694</v>
+        <v>5818</v>
       </c>
       <c r="M22" t="n">
-        <v>5524.31</v>
+        <v>22280.82</v>
       </c>
       <c r="N22" t="n">
-        <v>3314.59</v>
+        <v>13368.49</v>
       </c>
       <c r="O22" t="n">
-        <v>2209.72</v>
+        <v>8912.33</v>
       </c>
       <c r="P22" t="n">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="Q22" t="n">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="R22" t="n">
-        <v>62.12</v>
+        <v>139.4</v>
       </c>
       <c r="S22" t="n">
-        <v>88.93000000000001</v>
+        <v>159.84</v>
       </c>
       <c r="T22" t="n">
-        <v>45.35</v>
+        <v>30.25</v>
       </c>
       <c r="U22" t="n">
-        <v>53.36</v>
+        <v>95.90000000000001</v>
       </c>
       <c r="V22" t="n">
-        <v>35.57</v>
+        <v>63.93</v>
       </c>
       <c r="W22" t="n">
-        <v>7.54</v>
+        <v>25.24</v>
       </c>
       <c r="X22" t="n">
-        <v>9.98</v>
+        <v>22.36</v>
       </c>
       <c r="Y22" t="n">
-        <v>62.12</v>
+        <v>139.4</v>
       </c>
       <c r="Z22" t="n">
-        <v>0.288</v>
+        <v>0.342</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>2026-01-08 16:09:25</t>
+          <t>2026-01-06 13:54:16</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -3347,7 +3597,7 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Mouse session - Score: 0.364</t>
+          <t>Mouse session - Score: 0.411</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -3357,7 +3607,7 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>MOUSE_20260108_000</t>
+          <t>MOUSE_20260106_001</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
@@ -3370,12 +3620,12 @@
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>2026-01-08</t>
+          <t>2026-01-06</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>16:09:25</t>
+          <t>13:54:16</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
@@ -3384,58 +3634,58 @@
         </is>
       </c>
       <c r="K23" t="n">
-        <v>19883</v>
+        <v>27309</v>
       </c>
       <c r="L23" t="n">
-        <v>19883</v>
+        <v>27309</v>
       </c>
       <c r="M23" t="n">
-        <v>36192.95</v>
+        <v>16036.21</v>
       </c>
       <c r="N23" t="n">
-        <v>21715.77</v>
+        <v>9621.73</v>
       </c>
       <c r="O23" t="n">
-        <v>14477.18</v>
+        <v>6414.48</v>
       </c>
       <c r="P23" t="n">
-        <v>39</v>
+        <v>8</v>
       </c>
       <c r="Q23" t="n">
-        <v>4</v>
+        <v>29</v>
       </c>
       <c r="R23" t="n">
-        <v>94.09</v>
+        <v>174</v>
       </c>
       <c r="S23" t="n">
-        <v>384.64</v>
+        <v>92.16</v>
       </c>
       <c r="T23" t="n">
-        <v>6.74</v>
+        <v>44.5</v>
       </c>
       <c r="U23" t="n">
-        <v>230.79</v>
+        <v>55.3</v>
       </c>
       <c r="V23" t="n">
-        <v>153.86</v>
+        <v>36.87</v>
       </c>
       <c r="W23" t="n">
-        <v>24.69</v>
+        <v>26.1</v>
       </c>
       <c r="X23" t="n">
-        <v>18.47</v>
+        <v>4.46</v>
       </c>
       <c r="Y23" t="n">
-        <v>94.09</v>
+        <v>174</v>
       </c>
       <c r="Z23" t="n">
-        <v>0.364</v>
+        <v>0.411</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>2026-01-08 15:57:44</t>
+          <t>2026-01-06 11:35:01</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -3445,7 +3695,7 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Mouse session - Score: 0.434</t>
+          <t>Mouse session - Score: 0.411</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -3455,7 +3705,7 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>MOUSE_20260108_001</t>
+          <t>MOUSE_20260106_002</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
@@ -3468,12 +3718,12 @@
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>2026-01-08</t>
+          <t>2026-01-06</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>15:57:44</t>
+          <t>11:35:01</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
@@ -3482,58 +3732,58 @@
         </is>
       </c>
       <c r="K24" t="n">
-        <v>18432</v>
+        <v>12792</v>
       </c>
       <c r="L24" t="n">
-        <v>18432</v>
+        <v>12792</v>
       </c>
       <c r="M24" t="n">
-        <v>6377.91</v>
+        <v>9611.790000000001</v>
       </c>
       <c r="N24" t="n">
-        <v>3826.75</v>
+        <v>5767.08</v>
       </c>
       <c r="O24" t="n">
-        <v>2551.16</v>
+        <v>3844.72</v>
       </c>
       <c r="P24" t="n">
-        <v>23</v>
+        <v>5</v>
       </c>
       <c r="Q24" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="R24" t="n">
-        <v>46.38</v>
+        <v>125.04</v>
       </c>
       <c r="S24" t="n">
-        <v>137.51</v>
+        <v>76.87</v>
       </c>
       <c r="T24" t="n">
-        <v>11.98</v>
+        <v>18.35</v>
       </c>
       <c r="U24" t="n">
-        <v>82.5</v>
+        <v>46.12</v>
       </c>
       <c r="V24" t="n">
-        <v>55</v>
+        <v>30.75</v>
       </c>
       <c r="W24" t="n">
-        <v>15.57</v>
+        <v>2.57</v>
       </c>
       <c r="X24" t="n">
-        <v>24.42</v>
+        <v>25.68</v>
       </c>
       <c r="Y24" t="n">
-        <v>46.38</v>
+        <v>125.04</v>
       </c>
       <c r="Z24" t="n">
-        <v>0.434</v>
+        <v>0.411</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>2026-01-08 17:22:33</t>
+          <t>2026-01-06 10:43:35</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -3543,7 +3793,7 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Mouse session - Score: 0.840</t>
+          <t>Mouse session - Score: 0.447</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -3553,25 +3803,25 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>MOUSE_20260108_002</t>
+          <t>MOUSE_20260106_003</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>CRITICAL</t>
+          <t>INFO</t>
         </is>
       </c>
       <c r="G25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>2026-01-08</t>
+          <t>2026-01-06</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>17:22:33</t>
+          <t>10:43:35</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
@@ -3580,58 +3830,58 @@
         </is>
       </c>
       <c r="K25" t="n">
-        <v>18263</v>
+        <v>27810</v>
       </c>
       <c r="L25" t="n">
-        <v>18263</v>
+        <v>27810</v>
       </c>
       <c r="M25" t="n">
-        <v>30419.36</v>
+        <v>7063.82</v>
       </c>
       <c r="N25" t="n">
-        <v>18251.62</v>
+        <v>4238.29</v>
       </c>
       <c r="O25" t="n">
-        <v>12167.75</v>
+        <v>2825.53</v>
       </c>
       <c r="P25" t="n">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="Q25" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="R25" t="n">
-        <v>138.04</v>
+        <v>106.38</v>
       </c>
       <c r="S25" t="n">
-        <v>220.37</v>
+        <v>66.40000000000001</v>
       </c>
       <c r="T25" t="n">
-        <v>23.35</v>
+        <v>48.56</v>
       </c>
       <c r="U25" t="n">
-        <v>132.22</v>
+        <v>39.84</v>
       </c>
       <c r="V25" t="n">
-        <v>88.15000000000001</v>
+        <v>26.56</v>
       </c>
       <c r="W25" t="n">
-        <v>24.31</v>
+        <v>3.08</v>
       </c>
       <c r="X25" t="n">
-        <v>23.02</v>
+        <v>24.82</v>
       </c>
       <c r="Y25" t="n">
-        <v>138.04</v>
+        <v>106.38</v>
       </c>
       <c r="Z25" t="n">
-        <v>0.84</v>
+        <v>0.447</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>2026-01-09 13:56:16</t>
+          <t>2026-01-07 17:38:21</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -3641,7 +3891,7 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Mouse session - Score: 0.369</t>
+          <t>Mouse session - Score: 0.346</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -3651,7 +3901,7 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>MOUSE_20260109_000</t>
+          <t>MOUSE_20260107_000</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
@@ -3664,12 +3914,12 @@
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>2026-01-09</t>
+          <t>2026-01-07</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>13:56:16</t>
+          <t>17:38:21</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
@@ -3678,58 +3928,58 @@
         </is>
       </c>
       <c r="K26" t="n">
-        <v>11984</v>
+        <v>15157</v>
       </c>
       <c r="L26" t="n">
-        <v>11984</v>
+        <v>15157</v>
       </c>
       <c r="M26" t="n">
-        <v>16938.33</v>
+        <v>24074.95</v>
       </c>
       <c r="N26" t="n">
-        <v>10163</v>
+        <v>14444.97</v>
       </c>
       <c r="O26" t="n">
-        <v>6775.33</v>
+        <v>9629.98</v>
       </c>
       <c r="P26" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="Q26" t="n">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="R26" t="n">
-        <v>132.58</v>
+        <v>103.44</v>
       </c>
       <c r="S26" t="n">
-        <v>127.76</v>
+        <v>232.75</v>
       </c>
       <c r="T26" t="n">
-        <v>31.77</v>
+        <v>31.02</v>
       </c>
       <c r="U26" t="n">
-        <v>76.66</v>
+        <v>139.65</v>
       </c>
       <c r="V26" t="n">
-        <v>51.1</v>
+        <v>93.09999999999999</v>
       </c>
       <c r="W26" t="n">
-        <v>14.22</v>
+        <v>28.54</v>
       </c>
       <c r="X26" t="n">
-        <v>22.02</v>
+        <v>26.03</v>
       </c>
       <c r="Y26" t="n">
-        <v>132.58</v>
+        <v>103.44</v>
       </c>
       <c r="Z26" t="n">
-        <v>0.369</v>
+        <v>0.346</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>2026-01-09 12:49:12</t>
+          <t>2026-01-07 16:49:53</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -3739,7 +3989,7 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Mouse session - Score: 0.356</t>
+          <t>Mouse session - Score: 0.359</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -3749,7 +3999,7 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>MOUSE_20260109_001</t>
+          <t>MOUSE_20260107_001</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
@@ -3762,12 +4012,12 @@
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>2026-01-09</t>
+          <t>2026-01-07</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>12:49:12</t>
+          <t>16:49:53</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
@@ -3776,58 +4026,58 @@
         </is>
       </c>
       <c r="K27" t="n">
-        <v>13748</v>
+        <v>9219</v>
       </c>
       <c r="L27" t="n">
-        <v>13748</v>
+        <v>9219</v>
       </c>
       <c r="M27" t="n">
-        <v>26654.6</v>
+        <v>14086.3</v>
       </c>
       <c r="N27" t="n">
-        <v>15992.76</v>
+        <v>8451.780000000001</v>
       </c>
       <c r="O27" t="n">
-        <v>10661.84</v>
+        <v>5634.52</v>
       </c>
       <c r="P27" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="Q27" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="R27" t="n">
-        <v>163.87</v>
+        <v>161.35</v>
       </c>
       <c r="S27" t="n">
-        <v>162.66</v>
+        <v>87.31</v>
       </c>
       <c r="T27" t="n">
-        <v>30.62</v>
+        <v>13.18</v>
       </c>
       <c r="U27" t="n">
-        <v>97.59</v>
+        <v>52.38</v>
       </c>
       <c r="V27" t="n">
-        <v>65.06</v>
+        <v>34.92</v>
       </c>
       <c r="W27" t="n">
-        <v>3.84</v>
+        <v>15.68</v>
       </c>
       <c r="X27" t="n">
-        <v>11.89</v>
+        <v>13.69</v>
       </c>
       <c r="Y27" t="n">
-        <v>163.87</v>
+        <v>161.35</v>
       </c>
       <c r="Z27" t="n">
-        <v>0.356</v>
+        <v>0.359</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>2026-01-09 13:50:04</t>
+          <t>2026-01-07 11:15:15</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -3837,7 +4087,7 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Mouse session - Score: 0.283</t>
+          <t>Mouse session - Score: 0.342</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -3847,7 +4097,7 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>MOUSE_20260109_002</t>
+          <t>MOUSE_20260107_002</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
@@ -3860,12 +4110,12 @@
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>2026-01-09</t>
+          <t>2026-01-07</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>13:50:04</t>
+          <t>11:15:15</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
@@ -3874,58 +4124,58 @@
         </is>
       </c>
       <c r="K28" t="n">
-        <v>11729</v>
+        <v>7972</v>
       </c>
       <c r="L28" t="n">
-        <v>11729</v>
+        <v>7972</v>
       </c>
       <c r="M28" t="n">
-        <v>27580.33</v>
+        <v>5085.36</v>
       </c>
       <c r="N28" t="n">
-        <v>16548.2</v>
+        <v>3051.22</v>
       </c>
       <c r="O28" t="n">
-        <v>11032.13</v>
+        <v>2034.15</v>
       </c>
       <c r="P28" t="n">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="Q28" t="n">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="R28" t="n">
-        <v>60.01</v>
+        <v>163.31</v>
       </c>
       <c r="S28" t="n">
-        <v>459.61</v>
+        <v>31.14</v>
       </c>
       <c r="T28" t="n">
-        <v>30.03</v>
+        <v>32.19</v>
       </c>
       <c r="U28" t="n">
-        <v>275.77</v>
+        <v>18.68</v>
       </c>
       <c r="V28" t="n">
-        <v>183.85</v>
+        <v>12.46</v>
       </c>
       <c r="W28" t="n">
-        <v>12.44</v>
+        <v>23.91</v>
       </c>
       <c r="X28" t="n">
-        <v>14.14</v>
+        <v>8.050000000000001</v>
       </c>
       <c r="Y28" t="n">
-        <v>60.01</v>
+        <v>163.31</v>
       </c>
       <c r="Z28" t="n">
-        <v>0.283</v>
+        <v>0.342</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>2026-01-10 17:32:11</t>
+          <t>2026-01-07 13:59:23</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -3935,7 +4185,7 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Mouse session - Score: 0.387</t>
+          <t>Mouse session - Score: 0.349</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -3945,7 +4195,7 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>MOUSE_20260110_000</t>
+          <t>MOUSE_20260107_003</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
@@ -3958,12 +4208,12 @@
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>2026-01-10</t>
+          <t>2026-01-07</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>17:32:11</t>
+          <t>13:59:23</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
@@ -3972,58 +4222,58 @@
         </is>
       </c>
       <c r="K29" t="n">
-        <v>9958</v>
+        <v>13334</v>
       </c>
       <c r="L29" t="n">
-        <v>9958</v>
+        <v>13334</v>
       </c>
       <c r="M29" t="n">
-        <v>39522.33</v>
+        <v>7667.31</v>
       </c>
       <c r="N29" t="n">
-        <v>23713.4</v>
+        <v>4600.39</v>
       </c>
       <c r="O29" t="n">
-        <v>15808.93</v>
+        <v>3066.92</v>
       </c>
       <c r="P29" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="Q29" t="n">
         <v>17</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8</v>
+        <v>76.78</v>
       </c>
       <c r="S29" t="n">
-        <v>304.49</v>
+        <v>99.86</v>
       </c>
       <c r="T29" t="n">
-        <v>16.65</v>
+        <v>29.91</v>
       </c>
       <c r="U29" t="n">
-        <v>182.69</v>
+        <v>59.92</v>
       </c>
       <c r="V29" t="n">
-        <v>121.8</v>
+        <v>39.95</v>
       </c>
       <c r="W29" t="n">
-        <v>18.76</v>
+        <v>17.76</v>
       </c>
       <c r="X29" t="n">
-        <v>23.48</v>
+        <v>2.28</v>
       </c>
       <c r="Y29" t="n">
-        <v>129.8</v>
+        <v>76.78</v>
       </c>
       <c r="Z29" t="n">
-        <v>0.387</v>
+        <v>0.349</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>2026-01-10 15:56:31</t>
+          <t>2026-01-08 12:02:18</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -4033,7 +4283,7 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Mouse session - Score: 0.365</t>
+          <t>Mouse session - Score: 0.429</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -4043,7 +4293,7 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>MOUSE_20260110_001</t>
+          <t>MOUSE_20260108_000</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
@@ -4056,12 +4306,12 @@
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>2026-01-10</t>
+          <t>2026-01-08</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>15:56:31</t>
+          <t>12:02:18</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
@@ -4070,58 +4320,58 @@
         </is>
       </c>
       <c r="K30" t="n">
-        <v>15812</v>
+        <v>9950</v>
       </c>
       <c r="L30" t="n">
-        <v>15812</v>
+        <v>9950</v>
       </c>
       <c r="M30" t="n">
-        <v>14160.2</v>
+        <v>23004.89</v>
       </c>
       <c r="N30" t="n">
-        <v>8496.120000000001</v>
+        <v>13802.94</v>
       </c>
       <c r="O30" t="n">
-        <v>5664.08</v>
+        <v>9201.959999999999</v>
       </c>
       <c r="P30" t="n">
-        <v>6</v>
+        <v>31</v>
       </c>
       <c r="Q30" t="n">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="R30" t="n">
-        <v>82.79000000000001</v>
+        <v>105.15</v>
       </c>
       <c r="S30" t="n">
-        <v>171.04</v>
+        <v>218.78</v>
       </c>
       <c r="T30" t="n">
-        <v>28.83</v>
+        <v>28.03</v>
       </c>
       <c r="U30" t="n">
-        <v>102.62</v>
+        <v>131.27</v>
       </c>
       <c r="V30" t="n">
-        <v>68.41</v>
+        <v>87.51000000000001</v>
       </c>
       <c r="W30" t="n">
-        <v>22.21</v>
+        <v>17</v>
       </c>
       <c r="X30" t="n">
-        <v>8.02</v>
+        <v>15.73</v>
       </c>
       <c r="Y30" t="n">
-        <v>82.79000000000001</v>
+        <v>105.15</v>
       </c>
       <c r="Z30" t="n">
-        <v>0.365</v>
+        <v>0.429</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>2026-01-10 17:08:32</t>
+          <t>2026-01-08 16:07:02</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -4131,7 +4381,7 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Mouse session - Score: 0.443</t>
+          <t>Mouse session - Score: 0.376</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -4141,7 +4391,7 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>MOUSE_20260110_002</t>
+          <t>MOUSE_20260108_001</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
@@ -4154,12 +4404,12 @@
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>2026-01-10</t>
+          <t>2026-01-08</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>17:08:32</t>
+          <t>16:07:02</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
@@ -4168,58 +4418,58 @@
         </is>
       </c>
       <c r="K31" t="n">
-        <v>10868</v>
+        <v>29866</v>
       </c>
       <c r="L31" t="n">
-        <v>10868</v>
+        <v>29866</v>
       </c>
       <c r="M31" t="n">
-        <v>28463.38</v>
+        <v>10039.55</v>
       </c>
       <c r="N31" t="n">
-        <v>17078.03</v>
+        <v>6023.73</v>
       </c>
       <c r="O31" t="n">
-        <v>11385.35</v>
+        <v>4015.82</v>
       </c>
       <c r="P31" t="n">
-        <v>17</v>
+        <v>33</v>
       </c>
       <c r="Q31" t="n">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="R31" t="n">
-        <v>60.64</v>
+        <v>73.2</v>
       </c>
       <c r="S31" t="n">
-        <v>469.41</v>
+        <v>137.15</v>
       </c>
       <c r="T31" t="n">
-        <v>42.83</v>
+        <v>7.25</v>
       </c>
       <c r="U31" t="n">
-        <v>281.65</v>
+        <v>82.29000000000001</v>
       </c>
       <c r="V31" t="n">
-        <v>187.76</v>
+        <v>54.86</v>
       </c>
       <c r="W31" t="n">
-        <v>16.49</v>
+        <v>11.12</v>
       </c>
       <c r="X31" t="n">
-        <v>23.89</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="Y31" t="n">
-        <v>60.64</v>
+        <v>73.2</v>
       </c>
       <c r="Z31" t="n">
-        <v>0.443</v>
+        <v>0.376</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>2026-01-11 14:02:54</t>
+          <t>2026-01-08 11:49:20</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -4229,7 +4479,7 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Mouse session - Score: 0.380</t>
+          <t>Mouse session - Score: 0.814</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -4239,25 +4489,25 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>MOUSE_20260111_000</t>
+          <t>MOUSE_20260108_002</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>INFO</t>
+          <t>CRITICAL</t>
         </is>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>2026-01-11</t>
+          <t>2026-01-08</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>14:02:54</t>
+          <t>11:49:20</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
@@ -4266,58 +4516,58 @@
         </is>
       </c>
       <c r="K32" t="n">
-        <v>11931</v>
+        <v>7012</v>
       </c>
       <c r="L32" t="n">
-        <v>11931</v>
+        <v>7012</v>
       </c>
       <c r="M32" t="n">
-        <v>22393.32</v>
+        <v>15501.66</v>
       </c>
       <c r="N32" t="n">
-        <v>13435.99</v>
+        <v>9300.99</v>
       </c>
       <c r="O32" t="n">
-        <v>8957.33</v>
+        <v>6200.66</v>
       </c>
       <c r="P32" t="n">
-        <v>40</v>
+        <v>23</v>
       </c>
       <c r="Q32" t="n">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="R32" t="n">
-        <v>129.51</v>
+        <v>54.72</v>
       </c>
       <c r="S32" t="n">
-        <v>172.91</v>
+        <v>283.31</v>
       </c>
       <c r="T32" t="n">
-        <v>41.63</v>
+        <v>48.46</v>
       </c>
       <c r="U32" t="n">
-        <v>103.75</v>
+        <v>169.99</v>
       </c>
       <c r="V32" t="n">
-        <v>69.16</v>
+        <v>113.32</v>
       </c>
       <c r="W32" t="n">
-        <v>6.27</v>
+        <v>24.81</v>
       </c>
       <c r="X32" t="n">
-        <v>7.34</v>
+        <v>18.25</v>
       </c>
       <c r="Y32" t="n">
-        <v>129.51</v>
+        <v>54.72</v>
       </c>
       <c r="Z32" t="n">
-        <v>0.38</v>
+        <v>0.8139999999999999</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>2026-01-11 16:40:20</t>
+          <t>2026-01-08 16:51:19</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -4327,7 +4577,7 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Mouse session - Score: 0.260</t>
+          <t>Mouse session - Score: 0.312</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -4337,7 +4587,7 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>MOUSE_20260111_001</t>
+          <t>MOUSE_20260108_003</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
@@ -4350,12 +4600,12 @@
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>2026-01-11</t>
+          <t>2026-01-08</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>16:40:20</t>
+          <t>16:51:19</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
@@ -4364,58 +4614,58 @@
         </is>
       </c>
       <c r="K33" t="n">
-        <v>8262</v>
+        <v>20339</v>
       </c>
       <c r="L33" t="n">
-        <v>8262</v>
+        <v>20339</v>
       </c>
       <c r="M33" t="n">
-        <v>37261.36</v>
+        <v>23040.19</v>
       </c>
       <c r="N33" t="n">
-        <v>22356.82</v>
+        <v>13824.11</v>
       </c>
       <c r="O33" t="n">
-        <v>14904.54</v>
+        <v>9216.08</v>
       </c>
       <c r="P33" t="n">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="R33" t="n">
-        <v>131.24</v>
+        <v>142.3</v>
       </c>
       <c r="S33" t="n">
-        <v>283.92</v>
+        <v>161.91</v>
       </c>
       <c r="T33" t="n">
-        <v>23.75</v>
+        <v>35.84</v>
       </c>
       <c r="U33" t="n">
-        <v>170.35</v>
+        <v>97.15000000000001</v>
       </c>
       <c r="V33" t="n">
-        <v>113.57</v>
+        <v>64.77</v>
       </c>
       <c r="W33" t="n">
-        <v>5.85</v>
+        <v>26.37</v>
       </c>
       <c r="X33" t="n">
-        <v>27.41</v>
+        <v>6.36</v>
       </c>
       <c r="Y33" t="n">
-        <v>131.24</v>
+        <v>142.3</v>
       </c>
       <c r="Z33" t="n">
-        <v>0.26</v>
+        <v>0.312</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>2026-01-11 15:31:09</t>
+          <t>2026-01-09 16:43:29</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -4425,7 +4675,7 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Mouse session - Score: 0.433</t>
+          <t>Mouse session - Score: 0.291</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -4435,7 +4685,7 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>MOUSE_20260111_002</t>
+          <t>MOUSE_20260109_000</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
@@ -4448,12 +4698,12 @@
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>2026-01-11</t>
+          <t>2026-01-09</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>15:31:09</t>
+          <t>16:43:29</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
@@ -4462,58 +4712,58 @@
         </is>
       </c>
       <c r="K34" t="n">
-        <v>29242</v>
+        <v>13196</v>
       </c>
       <c r="L34" t="n">
-        <v>29242</v>
+        <v>13196</v>
       </c>
       <c r="M34" t="n">
-        <v>21649.93</v>
+        <v>33828.99</v>
       </c>
       <c r="N34" t="n">
-        <v>12989.96</v>
+        <v>20297.39</v>
       </c>
       <c r="O34" t="n">
-        <v>8659.969999999999</v>
+        <v>13531.6</v>
       </c>
       <c r="P34" t="n">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="R34" t="n">
-        <v>173.15</v>
+        <v>137.63</v>
       </c>
       <c r="S34" t="n">
-        <v>125.04</v>
+        <v>245.79</v>
       </c>
       <c r="T34" t="n">
-        <v>21.4</v>
+        <v>5.25</v>
       </c>
       <c r="U34" t="n">
-        <v>75.02</v>
+        <v>147.48</v>
       </c>
       <c r="V34" t="n">
-        <v>50.02</v>
+        <v>98.31999999999999</v>
       </c>
       <c r="W34" t="n">
-        <v>8.390000000000001</v>
+        <v>27.51</v>
       </c>
       <c r="X34" t="n">
-        <v>2.47</v>
+        <v>23.75</v>
       </c>
       <c r="Y34" t="n">
-        <v>173.15</v>
+        <v>137.63</v>
       </c>
       <c r="Z34" t="n">
-        <v>0.433</v>
+        <v>0.291</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>2026-01-12 17:13:10</t>
+          <t>2026-01-09 09:30:10</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -4523,7 +4773,7 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Mouse session - Score: 0.332</t>
+          <t>Mouse session - Score: 0.343</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -4533,7 +4783,7 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>MOUSE_20260112_000</t>
+          <t>MOUSE_20260109_001</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
@@ -4546,12 +4796,12 @@
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>2026-01-12</t>
+          <t>2026-01-09</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>17:13:10</t>
+          <t>09:30:10</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
@@ -4560,58 +4810,58 @@
         </is>
       </c>
       <c r="K35" t="n">
-        <v>21574</v>
+        <v>21828</v>
       </c>
       <c r="L35" t="n">
-        <v>21574</v>
+        <v>21828</v>
       </c>
       <c r="M35" t="n">
-        <v>29818.89</v>
+        <v>13303.6</v>
       </c>
       <c r="N35" t="n">
-        <v>17891.33</v>
+        <v>7982.16</v>
       </c>
       <c r="O35" t="n">
-        <v>11927.55</v>
+        <v>5321.44</v>
       </c>
       <c r="P35" t="n">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="Q35" t="n">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="R35" t="n">
-        <v>111.15</v>
+        <v>49.16</v>
       </c>
       <c r="S35" t="n">
-        <v>268.28</v>
+        <v>270.6</v>
       </c>
       <c r="T35" t="n">
-        <v>42.88</v>
+        <v>39.38</v>
       </c>
       <c r="U35" t="n">
-        <v>160.97</v>
+        <v>162.36</v>
       </c>
       <c r="V35" t="n">
-        <v>107.31</v>
+        <v>108.24</v>
       </c>
       <c r="W35" t="n">
-        <v>24.76</v>
+        <v>19.93</v>
       </c>
       <c r="X35" t="n">
-        <v>2.07</v>
+        <v>5.11</v>
       </c>
       <c r="Y35" t="n">
-        <v>111.15</v>
+        <v>49.16</v>
       </c>
       <c r="Z35" t="n">
-        <v>0.332</v>
+        <v>0.343</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>2026-01-12 12:23:35</t>
+          <t>2026-01-09 10:54:31</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -4621,7 +4871,7 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Mouse session - Score: 0.358</t>
+          <t>Mouse session - Score: 0.303</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -4631,7 +4881,7 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>MOUSE_20260112_001</t>
+          <t>MOUSE_20260109_002</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
@@ -4644,12 +4894,12 @@
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>2026-01-12</t>
+          <t>2026-01-09</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>12:23:35</t>
+          <t>10:54:31</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
@@ -4658,58 +4908,58 @@
         </is>
       </c>
       <c r="K36" t="n">
-        <v>28356</v>
+        <v>10349</v>
       </c>
       <c r="L36" t="n">
-        <v>28356</v>
+        <v>10349</v>
       </c>
       <c r="M36" t="n">
-        <v>19810.43</v>
+        <v>15411.89</v>
       </c>
       <c r="N36" t="n">
-        <v>11886.26</v>
+        <v>9247.129999999999</v>
       </c>
       <c r="O36" t="n">
-        <v>7924.17</v>
+        <v>6164.75</v>
       </c>
       <c r="P36" t="n">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="Q36" t="n">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="R36" t="n">
-        <v>67.3</v>
+        <v>166.18</v>
       </c>
       <c r="S36" t="n">
-        <v>294.36</v>
+        <v>92.73999999999999</v>
       </c>
       <c r="T36" t="n">
-        <v>23.09</v>
+        <v>27.25</v>
       </c>
       <c r="U36" t="n">
-        <v>176.62</v>
+        <v>55.65</v>
       </c>
       <c r="V36" t="n">
-        <v>117.74</v>
+        <v>37.1</v>
       </c>
       <c r="W36" t="n">
-        <v>28.19</v>
+        <v>3.26</v>
       </c>
       <c r="X36" t="n">
-        <v>14.5</v>
+        <v>24.01</v>
       </c>
       <c r="Y36" t="n">
-        <v>67.3</v>
+        <v>166.18</v>
       </c>
       <c r="Z36" t="n">
-        <v>0.358</v>
+        <v>0.303</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>2026-01-12 13:48:31</t>
+          <t>2026-01-09 12:01:46</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -4719,7 +4969,7 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Mouse session - Score: 0.398</t>
+          <t>Mouse session - Score: 0.365</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -4729,7 +4979,7 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>MOUSE_20260112_002</t>
+          <t>MOUSE_20260109_003</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
@@ -4742,12 +4992,12 @@
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>2026-01-12</t>
+          <t>2026-01-09</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>13:48:31</t>
+          <t>12:01:46</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
@@ -4756,58 +5006,58 @@
         </is>
       </c>
       <c r="K37" t="n">
-        <v>11974</v>
+        <v>22535</v>
       </c>
       <c r="L37" t="n">
-        <v>11974</v>
+        <v>22535</v>
       </c>
       <c r="M37" t="n">
-        <v>32009.97</v>
+        <v>9692.219999999999</v>
       </c>
       <c r="N37" t="n">
-        <v>19205.98</v>
+        <v>5815.33</v>
       </c>
       <c r="O37" t="n">
-        <v>12803.99</v>
+        <v>3876.89</v>
       </c>
       <c r="P37" t="n">
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="Q37" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="R37" t="n">
-        <v>80.53</v>
+        <v>167.38</v>
       </c>
       <c r="S37" t="n">
-        <v>397.5</v>
+        <v>57.9</v>
       </c>
       <c r="T37" t="n">
-        <v>7.5</v>
+        <v>31.41</v>
       </c>
       <c r="U37" t="n">
-        <v>238.5</v>
+        <v>34.74</v>
       </c>
       <c r="V37" t="n">
-        <v>159</v>
+        <v>23.16</v>
       </c>
       <c r="W37" t="n">
-        <v>20.11</v>
+        <v>11.82</v>
       </c>
       <c r="X37" t="n">
-        <v>25.41</v>
+        <v>24.06</v>
       </c>
       <c r="Y37" t="n">
-        <v>80.53</v>
+        <v>167.38</v>
       </c>
       <c r="Z37" t="n">
-        <v>0.398</v>
+        <v>0.365</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>2026-01-13 09:54:57</t>
+          <t>2026-01-10 10:56:13</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -4817,7 +5067,7 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Mouse session - Score: 0.315</t>
+          <t>Mouse session - Score: 0.384</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -4827,7 +5077,7 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>MOUSE_20260113_000</t>
+          <t>MOUSE_20260110_000</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
@@ -4840,12 +5090,12 @@
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>2026-01-13</t>
+          <t>2026-01-10</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>09:54:57</t>
+          <t>10:56:13</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
@@ -4854,58 +5104,58 @@
         </is>
       </c>
       <c r="K38" t="n">
-        <v>27774</v>
+        <v>6116</v>
       </c>
       <c r="L38" t="n">
-        <v>27774</v>
+        <v>6116</v>
       </c>
       <c r="M38" t="n">
-        <v>14257.34</v>
+        <v>25502.31</v>
       </c>
       <c r="N38" t="n">
-        <v>8554.4</v>
+        <v>15301.39</v>
       </c>
       <c r="O38" t="n">
-        <v>5702.93</v>
+        <v>10200.93</v>
       </c>
       <c r="P38" t="n">
-        <v>27</v>
+        <v>5</v>
       </c>
       <c r="Q38" t="n">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="R38" t="n">
-        <v>99.7</v>
+        <v>146.14</v>
       </c>
       <c r="S38" t="n">
-        <v>143</v>
+        <v>174.51</v>
       </c>
       <c r="T38" t="n">
-        <v>38.73</v>
+        <v>23.49</v>
       </c>
       <c r="U38" t="n">
-        <v>85.8</v>
+        <v>104.7</v>
       </c>
       <c r="V38" t="n">
-        <v>57.2</v>
+        <v>69.8</v>
       </c>
       <c r="W38" t="n">
-        <v>24.53</v>
+        <v>12.64</v>
       </c>
       <c r="X38" t="n">
-        <v>17.93</v>
+        <v>13.16</v>
       </c>
       <c r="Y38" t="n">
-        <v>99.7</v>
+        <v>146.14</v>
       </c>
       <c r="Z38" t="n">
-        <v>0.315</v>
+        <v>0.384</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>2026-01-13 12:37:20</t>
+          <t>2026-01-10 15:17:20</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -4915,7 +5165,7 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Mouse session - Score: 0.392</t>
+          <t>Mouse session - Score: 0.370</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -4925,7 +5175,7 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>MOUSE_20260113_001</t>
+          <t>MOUSE_20260110_001</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
@@ -4938,12 +5188,12 @@
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>2026-01-13</t>
+          <t>2026-01-10</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>12:37:20</t>
+          <t>15:17:20</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
@@ -4952,58 +5202,58 @@
         </is>
       </c>
       <c r="K39" t="n">
-        <v>28040</v>
+        <v>25253</v>
       </c>
       <c r="L39" t="n">
-        <v>28040</v>
+        <v>25253</v>
       </c>
       <c r="M39" t="n">
-        <v>11679.98</v>
+        <v>25483.12</v>
       </c>
       <c r="N39" t="n">
-        <v>7007.99</v>
+        <v>15289.87</v>
       </c>
       <c r="O39" t="n">
-        <v>4671.99</v>
+        <v>10193.25</v>
       </c>
       <c r="P39" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="Q39" t="n">
-        <v>25</v>
+        <v>2</v>
       </c>
       <c r="R39" t="n">
-        <v>85.31</v>
+        <v>114.45</v>
       </c>
       <c r="S39" t="n">
-        <v>136.91</v>
+        <v>222.67</v>
       </c>
       <c r="T39" t="n">
-        <v>27.77</v>
+        <v>22.13</v>
       </c>
       <c r="U39" t="n">
-        <v>82.15000000000001</v>
+        <v>133.6</v>
       </c>
       <c r="V39" t="n">
-        <v>54.76</v>
+        <v>89.06999999999999</v>
       </c>
       <c r="W39" t="n">
-        <v>8.390000000000001</v>
+        <v>26.17</v>
       </c>
       <c r="X39" t="n">
-        <v>3.07</v>
+        <v>20.21</v>
       </c>
       <c r="Y39" t="n">
-        <v>85.31</v>
+        <v>114.45</v>
       </c>
       <c r="Z39" t="n">
-        <v>0.392</v>
+        <v>0.37</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>2026-01-13 13:45:39</t>
+          <t>2026-01-10 12:28:59</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -5013,7 +5263,7 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Mouse session - Score: 0.260</t>
+          <t>Mouse session - Score: 0.880</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -5023,25 +5273,25 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>MOUSE_20260113_002</t>
+          <t>MOUSE_20260110_002</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>INFO</t>
+          <t>CRITICAL</t>
         </is>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>2026-01-13</t>
+          <t>2026-01-10</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>13:45:39</t>
+          <t>12:28:59</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
@@ -5050,58 +5300,58 @@
         </is>
       </c>
       <c r="K40" t="n">
-        <v>13752</v>
+        <v>13404</v>
       </c>
       <c r="L40" t="n">
-        <v>13752</v>
+        <v>13404</v>
       </c>
       <c r="M40" t="n">
-        <v>11050.63</v>
+        <v>32684.68</v>
       </c>
       <c r="N40" t="n">
-        <v>6630.38</v>
+        <v>19610.81</v>
       </c>
       <c r="O40" t="n">
-        <v>4420.25</v>
+        <v>13073.87</v>
       </c>
       <c r="P40" t="n">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="Q40" t="n">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="R40" t="n">
-        <v>70.84999999999999</v>
+        <v>114.81</v>
       </c>
       <c r="S40" t="n">
-        <v>155.96</v>
+        <v>284.69</v>
       </c>
       <c r="T40" t="n">
-        <v>40.58</v>
+        <v>41.98</v>
       </c>
       <c r="U40" t="n">
-        <v>93.58</v>
+        <v>170.81</v>
       </c>
       <c r="V40" t="n">
-        <v>62.38</v>
+        <v>113.88</v>
       </c>
       <c r="W40" t="n">
-        <v>10.16</v>
+        <v>6.78</v>
       </c>
       <c r="X40" t="n">
-        <v>3.25</v>
+        <v>24.41</v>
       </c>
       <c r="Y40" t="n">
-        <v>70.84999999999999</v>
+        <v>114.81</v>
       </c>
       <c r="Z40" t="n">
-        <v>0.26</v>
+        <v>0.88</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>2026-01-14 13:52:45</t>
+          <t>2026-01-10 12:41:08</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -5111,7 +5361,7 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Mouse session - Score: 0.386</t>
+          <t>Mouse session - Score: 0.313</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -5121,7 +5371,7 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>MOUSE_20260114_000</t>
+          <t>MOUSE_20260110_003</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
@@ -5134,12 +5384,12 @@
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>2026-01-14</t>
+          <t>2026-01-10</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>13:52:45</t>
+          <t>12:41:08</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
@@ -5148,58 +5398,58 @@
         </is>
       </c>
       <c r="K41" t="n">
-        <v>28925</v>
+        <v>9047</v>
       </c>
       <c r="L41" t="n">
-        <v>28925</v>
+        <v>9047</v>
       </c>
       <c r="M41" t="n">
-        <v>17215.06</v>
+        <v>24591.82</v>
       </c>
       <c r="N41" t="n">
-        <v>10329.03</v>
+        <v>14755.09</v>
       </c>
       <c r="O41" t="n">
-        <v>6886.02</v>
+        <v>9836.73</v>
       </c>
       <c r="P41" t="n">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="Q41" t="n">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="R41" t="n">
-        <v>165.09</v>
+        <v>30.7</v>
       </c>
       <c r="S41" t="n">
-        <v>104.28</v>
+        <v>800.99</v>
       </c>
       <c r="T41" t="n">
-        <v>16.7</v>
+        <v>35.87</v>
       </c>
       <c r="U41" t="n">
-        <v>62.57</v>
+        <v>480.59</v>
       </c>
       <c r="V41" t="n">
-        <v>41.71</v>
+        <v>320.4</v>
       </c>
       <c r="W41" t="n">
-        <v>23.63</v>
+        <v>12.35</v>
       </c>
       <c r="X41" t="n">
-        <v>27.09</v>
+        <v>26.05</v>
       </c>
       <c r="Y41" t="n">
-        <v>165.09</v>
+        <v>30.7</v>
       </c>
       <c r="Z41" t="n">
-        <v>0.386</v>
+        <v>0.313</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>2026-01-14 17:31:57</t>
+          <t>2026-01-12 15:04:33</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -5209,7 +5459,7 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Mouse session - Score: 0.288</t>
+          <t>Mouse session - Score: 0.302</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -5219,7 +5469,7 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>MOUSE_20260114_001</t>
+          <t>MOUSE_20260112_000</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
@@ -5232,12 +5482,12 @@
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>2026-01-14</t>
+          <t>2026-01-12</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>17:31:57</t>
+          <t>15:04:33</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
@@ -5246,58 +5496,58 @@
         </is>
       </c>
       <c r="K42" t="n">
-        <v>6587</v>
+        <v>8464</v>
       </c>
       <c r="L42" t="n">
-        <v>6587</v>
+        <v>8464</v>
       </c>
       <c r="M42" t="n">
-        <v>19725.27</v>
+        <v>9591.379999999999</v>
       </c>
       <c r="N42" t="n">
-        <v>11835.16</v>
+        <v>5754.83</v>
       </c>
       <c r="O42" t="n">
-        <v>7890.11</v>
+        <v>3836.55</v>
       </c>
       <c r="P42" t="n">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="Q42" t="n">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="R42" t="n">
-        <v>148.34</v>
+        <v>48.21</v>
       </c>
       <c r="S42" t="n">
-        <v>132.98</v>
+        <v>198.93</v>
       </c>
       <c r="T42" t="n">
-        <v>30.7</v>
+        <v>35.65</v>
       </c>
       <c r="U42" t="n">
-        <v>79.79000000000001</v>
+        <v>119.36</v>
       </c>
       <c r="V42" t="n">
-        <v>53.19</v>
+        <v>79.56999999999999</v>
       </c>
       <c r="W42" t="n">
-        <v>4.33</v>
+        <v>27.98</v>
       </c>
       <c r="X42" t="n">
-        <v>27.9</v>
+        <v>16.11</v>
       </c>
       <c r="Y42" t="n">
-        <v>148.34</v>
+        <v>48.21</v>
       </c>
       <c r="Z42" t="n">
-        <v>0.288</v>
+        <v>0.302</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>2026-01-14 09:36:49</t>
+          <t>2026-01-12 12:12:26</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -5307,7 +5557,7 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Mouse session - Score: 0.389</t>
+          <t>Mouse session - Score: 0.412</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -5317,7 +5567,7 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>MOUSE_20260114_002</t>
+          <t>MOUSE_20260112_001</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
@@ -5330,12 +5580,12 @@
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>2026-01-14</t>
+          <t>2026-01-12</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>09:36:49</t>
+          <t>12:12:26</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
@@ -5344,58 +5594,58 @@
         </is>
       </c>
       <c r="K43" t="n">
-        <v>15498</v>
+        <v>9018</v>
       </c>
       <c r="L43" t="n">
-        <v>15498</v>
+        <v>9018</v>
       </c>
       <c r="M43" t="n">
-        <v>14081.57</v>
+        <v>34891.32</v>
       </c>
       <c r="N43" t="n">
-        <v>8448.940000000001</v>
+        <v>20934.79</v>
       </c>
       <c r="O43" t="n">
-        <v>5632.63</v>
+        <v>13956.53</v>
       </c>
       <c r="P43" t="n">
-        <v>18</v>
+        <v>49</v>
       </c>
       <c r="Q43" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="R43" t="n">
-        <v>98.44</v>
+        <v>72.04000000000001</v>
       </c>
       <c r="S43" t="n">
-        <v>143.05</v>
+        <v>484.32</v>
       </c>
       <c r="T43" t="n">
-        <v>39.85</v>
+        <v>37.59</v>
       </c>
       <c r="U43" t="n">
-        <v>85.83</v>
+        <v>290.59</v>
       </c>
       <c r="V43" t="n">
-        <v>57.22</v>
+        <v>193.73</v>
       </c>
       <c r="W43" t="n">
-        <v>2.53</v>
+        <v>5.32</v>
       </c>
       <c r="X43" t="n">
-        <v>14.53</v>
+        <v>6.39</v>
       </c>
       <c r="Y43" t="n">
-        <v>98.44</v>
+        <v>72.04000000000001</v>
       </c>
       <c r="Z43" t="n">
-        <v>0.389</v>
+        <v>0.412</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>2026-01-15 10:29:29</t>
+          <t>2026-01-12 13:30:50</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -5405,7 +5655,7 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Mouse session - Score: 0.429</t>
+          <t>Mouse session - Score: 0.280</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
@@ -5415,7 +5665,7 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>MOUSE_20260115_000</t>
+          <t>MOUSE_20260112_002</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
@@ -5428,12 +5678,12 @@
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>2026-01-15</t>
+          <t>2026-01-12</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>10:29:29</t>
+          <t>13:30:50</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
@@ -5442,58 +5692,58 @@
         </is>
       </c>
       <c r="K44" t="n">
-        <v>11386</v>
+        <v>28291</v>
       </c>
       <c r="L44" t="n">
-        <v>11386</v>
+        <v>28291</v>
       </c>
       <c r="M44" t="n">
-        <v>38645.08</v>
+        <v>25072.47</v>
       </c>
       <c r="N44" t="n">
-        <v>23187.05</v>
+        <v>15043.48</v>
       </c>
       <c r="O44" t="n">
-        <v>15458.03</v>
+        <v>10028.99</v>
       </c>
       <c r="P44" t="n">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="Q44" t="n">
-        <v>2</v>
+        <v>26</v>
       </c>
       <c r="R44" t="n">
-        <v>58.26</v>
+        <v>39.94</v>
       </c>
       <c r="S44" t="n">
-        <v>663.37</v>
+        <v>627.74</v>
       </c>
       <c r="T44" t="n">
-        <v>13.97</v>
+        <v>45.17</v>
       </c>
       <c r="U44" t="n">
-        <v>398.02</v>
+        <v>376.64</v>
       </c>
       <c r="V44" t="n">
-        <v>265.35</v>
+        <v>251.1</v>
       </c>
       <c r="W44" t="n">
-        <v>16.74</v>
+        <v>25.26</v>
       </c>
       <c r="X44" t="n">
-        <v>18.88</v>
+        <v>16.32</v>
       </c>
       <c r="Y44" t="n">
-        <v>58.26</v>
+        <v>39.94</v>
       </c>
       <c r="Z44" t="n">
-        <v>0.429</v>
+        <v>0.28</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>2026-01-15 14:50:24</t>
+          <t>2026-01-12 17:19:24</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -5503,7 +5753,7 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Mouse session - Score: 0.429</t>
+          <t>Mouse session - Score: 0.351</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -5513,7 +5763,7 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>MOUSE_20260115_001</t>
+          <t>MOUSE_20260112_003</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
@@ -5526,12 +5776,12 @@
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>2026-01-15</t>
+          <t>2026-01-12</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>14:50:24</t>
+          <t>17:19:24</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
@@ -5540,58 +5790,58 @@
         </is>
       </c>
       <c r="K45" t="n">
-        <v>26270</v>
+        <v>18017</v>
       </c>
       <c r="L45" t="n">
-        <v>26270</v>
+        <v>18017</v>
       </c>
       <c r="M45" t="n">
-        <v>10272.02</v>
+        <v>33863.81</v>
       </c>
       <c r="N45" t="n">
-        <v>6163.21</v>
+        <v>20318.28</v>
       </c>
       <c r="O45" t="n">
-        <v>4108.81</v>
+        <v>13545.52</v>
       </c>
       <c r="P45" t="n">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="Q45" t="n">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="R45" t="n">
-        <v>73.03</v>
+        <v>95.87</v>
       </c>
       <c r="S45" t="n">
-        <v>140.65</v>
+        <v>353.22</v>
       </c>
       <c r="T45" t="n">
-        <v>45.83</v>
+        <v>22.59</v>
       </c>
       <c r="U45" t="n">
-        <v>84.39</v>
+        <v>211.93</v>
       </c>
       <c r="V45" t="n">
-        <v>56.26</v>
+        <v>141.29</v>
       </c>
       <c r="W45" t="n">
-        <v>8.57</v>
+        <v>27.37</v>
       </c>
       <c r="X45" t="n">
-        <v>15.5</v>
+        <v>7.56</v>
       </c>
       <c r="Y45" t="n">
-        <v>73.03</v>
+        <v>95.87</v>
       </c>
       <c r="Z45" t="n">
-        <v>0.429</v>
+        <v>0.351</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>2026-01-15 16:54:06</t>
+          <t>2026-01-13 15:43:11</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -5601,7 +5851,7 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Mouse session - Score: 0.355</t>
+          <t>Mouse session - Score: 0.401</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -5611,7 +5861,7 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>MOUSE_20260115_002</t>
+          <t>MOUSE_20260113_000</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
@@ -5624,12 +5874,12 @@
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>2026-01-15</t>
+          <t>2026-01-13</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>16:54:06</t>
+          <t>15:43:11</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
@@ -5638,58 +5888,58 @@
         </is>
       </c>
       <c r="K46" t="n">
-        <v>9659</v>
+        <v>7541</v>
       </c>
       <c r="L46" t="n">
-        <v>9659</v>
+        <v>7541</v>
       </c>
       <c r="M46" t="n">
-        <v>25968.73</v>
+        <v>27345.04</v>
       </c>
       <c r="N46" t="n">
-        <v>15581.24</v>
+        <v>16407.02</v>
       </c>
       <c r="O46" t="n">
-        <v>10387.49</v>
+        <v>10938.02</v>
       </c>
       <c r="P46" t="n">
-        <v>12</v>
+        <v>47</v>
       </c>
       <c r="Q46" t="n">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="R46" t="n">
-        <v>94.81999999999999</v>
+        <v>146.71</v>
       </c>
       <c r="S46" t="n">
-        <v>273.88</v>
+        <v>186.39</v>
       </c>
       <c r="T46" t="n">
-        <v>36.52</v>
+        <v>15.06</v>
       </c>
       <c r="U46" t="n">
-        <v>164.33</v>
+        <v>111.83</v>
       </c>
       <c r="V46" t="n">
-        <v>109.55</v>
+        <v>74.55</v>
       </c>
       <c r="W46" t="n">
-        <v>15.31</v>
+        <v>2.98</v>
       </c>
       <c r="X46" t="n">
-        <v>23.07</v>
+        <v>26.14</v>
       </c>
       <c r="Y46" t="n">
-        <v>94.81999999999999</v>
+        <v>146.71</v>
       </c>
       <c r="Z46" t="n">
-        <v>0.355</v>
+        <v>0.401</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>2026-01-16 13:50:57</t>
+          <t>2026-01-13 13:45:01</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -5699,7 +5949,7 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Mouse session - Score: 0.344</t>
+          <t>Mouse session - Score: 0.347</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -5709,7 +5959,7 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>MOUSE_20260116_000</t>
+          <t>MOUSE_20260113_001</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
@@ -5722,12 +5972,12 @@
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>2026-01-16</t>
+          <t>2026-01-13</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>13:50:57</t>
+          <t>13:45:01</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
@@ -5736,58 +5986,58 @@
         </is>
       </c>
       <c r="K47" t="n">
-        <v>11757</v>
+        <v>10266</v>
       </c>
       <c r="L47" t="n">
-        <v>11757</v>
+        <v>10266</v>
       </c>
       <c r="M47" t="n">
-        <v>7433.8</v>
+        <v>24773.13</v>
       </c>
       <c r="N47" t="n">
-        <v>4460.28</v>
+        <v>14863.88</v>
       </c>
       <c r="O47" t="n">
-        <v>2973.52</v>
+        <v>9909.25</v>
       </c>
       <c r="P47" t="n">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="Q47" t="n">
         <v>13</v>
       </c>
       <c r="R47" t="n">
-        <v>150.76</v>
+        <v>93.02</v>
       </c>
       <c r="S47" t="n">
-        <v>49.31</v>
+        <v>266.33</v>
       </c>
       <c r="T47" t="n">
-        <v>23.91</v>
+        <v>19.84</v>
       </c>
       <c r="U47" t="n">
-        <v>29.59</v>
+        <v>159.8</v>
       </c>
       <c r="V47" t="n">
-        <v>19.72</v>
+        <v>106.53</v>
       </c>
       <c r="W47" t="n">
-        <v>21.82</v>
+        <v>18.94</v>
       </c>
       <c r="X47" t="n">
-        <v>16.72</v>
+        <v>29.18</v>
       </c>
       <c r="Y47" t="n">
-        <v>150.76</v>
+        <v>93.02</v>
       </c>
       <c r="Z47" t="n">
-        <v>0.344</v>
+        <v>0.347</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>2026-01-16 15:36:42</t>
+          <t>2026-01-13 12:14:23</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -5797,7 +6047,7 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Mouse session - Score: 0.355</t>
+          <t>Mouse session - Score: 0.321</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
@@ -5807,7 +6057,7 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>MOUSE_20260116_001</t>
+          <t>MOUSE_20260113_002</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
@@ -5820,12 +6070,12 @@
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>2026-01-16</t>
+          <t>2026-01-13</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>15:36:42</t>
+          <t>12:14:23</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
@@ -5834,58 +6084,58 @@
         </is>
       </c>
       <c r="K48" t="n">
-        <v>13608</v>
+        <v>24722</v>
       </c>
       <c r="L48" t="n">
-        <v>13608</v>
+        <v>24722</v>
       </c>
       <c r="M48" t="n">
-        <v>20579.74</v>
+        <v>23998.08</v>
       </c>
       <c r="N48" t="n">
-        <v>12347.84</v>
+        <v>14398.85</v>
       </c>
       <c r="O48" t="n">
-        <v>8231.9</v>
+        <v>9599.23</v>
       </c>
       <c r="P48" t="n">
-        <v>29</v>
+        <v>6</v>
       </c>
       <c r="Q48" t="n">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="R48" t="n">
-        <v>127.04</v>
+        <v>123.6</v>
       </c>
       <c r="S48" t="n">
-        <v>162</v>
+        <v>194.16</v>
       </c>
       <c r="T48" t="n">
-        <v>41.44</v>
+        <v>42.92</v>
       </c>
       <c r="U48" t="n">
-        <v>97.2</v>
+        <v>116.5</v>
       </c>
       <c r="V48" t="n">
-        <v>64.8</v>
+        <v>77.66</v>
       </c>
       <c r="W48" t="n">
-        <v>10.3</v>
+        <v>17.88</v>
       </c>
       <c r="X48" t="n">
-        <v>15.82</v>
+        <v>24.31</v>
       </c>
       <c r="Y48" t="n">
-        <v>127.04</v>
+        <v>123.6</v>
       </c>
       <c r="Z48" t="n">
-        <v>0.355</v>
+        <v>0.321</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>2026-01-16 16:43:21</t>
+          <t>2026-01-13 09:15:38</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -5895,7 +6145,7 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Mouse session - Score: 0.267</t>
+          <t>Mouse session - Score: 0.430</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -5905,7 +6155,7 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>MOUSE_20260116_002</t>
+          <t>MOUSE_20260113_003</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
@@ -5918,12 +6168,12 @@
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>2026-01-16</t>
+          <t>2026-01-13</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>16:43:21</t>
+          <t>09:15:38</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
@@ -5932,58 +6182,58 @@
         </is>
       </c>
       <c r="K49" t="n">
-        <v>20446</v>
+        <v>22324</v>
       </c>
       <c r="L49" t="n">
-        <v>20446</v>
+        <v>22324</v>
       </c>
       <c r="M49" t="n">
-        <v>29946.03</v>
+        <v>26046.38</v>
       </c>
       <c r="N49" t="n">
-        <v>17967.62</v>
+        <v>15627.83</v>
       </c>
       <c r="O49" t="n">
-        <v>11978.41</v>
+        <v>10418.55</v>
       </c>
       <c r="P49" t="n">
-        <v>9</v>
+        <v>47</v>
       </c>
       <c r="Q49" t="n">
         <v>1</v>
       </c>
       <c r="R49" t="n">
-        <v>162.71</v>
+        <v>82.59999999999999</v>
       </c>
       <c r="S49" t="n">
-        <v>184.05</v>
+        <v>315.34</v>
       </c>
       <c r="T49" t="n">
-        <v>40.19</v>
+        <v>49.87</v>
       </c>
       <c r="U49" t="n">
-        <v>110.43</v>
+        <v>189.2</v>
       </c>
       <c r="V49" t="n">
-        <v>73.62</v>
+        <v>126.14</v>
       </c>
       <c r="W49" t="n">
-        <v>22.35</v>
+        <v>28.44</v>
       </c>
       <c r="X49" t="n">
-        <v>11.45</v>
+        <v>23.21</v>
       </c>
       <c r="Y49" t="n">
-        <v>162.71</v>
+        <v>82.59999999999999</v>
       </c>
       <c r="Z49" t="n">
-        <v>0.267</v>
+        <v>0.43</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>2026-01-19 12:34:57</t>
+          <t>2026-01-14 17:51:33</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -5993,7 +6243,7 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Mouse session - Score: 0.446</t>
+          <t>Mouse session - Score: 0.862</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -6003,25 +6253,25 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>MOUSE_20260119_000</t>
+          <t>MOUSE_20260114_000</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>INFO</t>
+          <t>CRITICAL</t>
         </is>
       </c>
       <c r="G50" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>2026-01-19</t>
+          <t>2026-01-14</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>12:34:57</t>
+          <t>17:51:33</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
@@ -6030,58 +6280,58 @@
         </is>
       </c>
       <c r="K50" t="n">
-        <v>22196</v>
+        <v>16610</v>
       </c>
       <c r="L50" t="n">
-        <v>22196</v>
+        <v>16610</v>
       </c>
       <c r="M50" t="n">
-        <v>5655.02</v>
+        <v>7872.1</v>
       </c>
       <c r="N50" t="n">
-        <v>3393.01</v>
+        <v>4723.26</v>
       </c>
       <c r="O50" t="n">
-        <v>2262.01</v>
+        <v>3148.84</v>
       </c>
       <c r="P50" t="n">
-        <v>4</v>
+        <v>33</v>
       </c>
       <c r="Q50" t="n">
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="R50" t="n">
-        <v>109.17</v>
+        <v>49.4</v>
       </c>
       <c r="S50" t="n">
-        <v>51.8</v>
+        <v>159.35</v>
       </c>
       <c r="T50" t="n">
-        <v>48.16</v>
+        <v>5.46</v>
       </c>
       <c r="U50" t="n">
-        <v>31.08</v>
+        <v>95.61</v>
       </c>
       <c r="V50" t="n">
-        <v>20.72</v>
+        <v>63.74</v>
       </c>
       <c r="W50" t="n">
-        <v>3.15</v>
+        <v>18.5</v>
       </c>
       <c r="X50" t="n">
-        <v>28.85</v>
+        <v>8.220000000000001</v>
       </c>
       <c r="Y50" t="n">
-        <v>109.17</v>
+        <v>49.4</v>
       </c>
       <c r="Z50" t="n">
-        <v>0.446</v>
+        <v>0.862</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>2026-01-19 11:35:41</t>
+          <t>2026-01-14 10:38:17</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -6091,7 +6341,7 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Mouse session - Score: 0.921</t>
+          <t>Mouse session - Score: 0.424</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -6101,25 +6351,25 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>MOUSE_20260119_001</t>
+          <t>MOUSE_20260114_001</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>CRITICAL</t>
+          <t>INFO</t>
         </is>
       </c>
       <c r="G51" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>2026-01-19</t>
+          <t>2026-01-14</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>11:35:41</t>
+          <t>10:38:17</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
@@ -6128,58 +6378,58 @@
         </is>
       </c>
       <c r="K51" t="n">
-        <v>13054</v>
+        <v>11994</v>
       </c>
       <c r="L51" t="n">
-        <v>13054</v>
+        <v>11994</v>
       </c>
       <c r="M51" t="n">
-        <v>22369.82</v>
+        <v>13781.26</v>
       </c>
       <c r="N51" t="n">
-        <v>13421.89</v>
+        <v>8268.76</v>
       </c>
       <c r="O51" t="n">
-        <v>8947.93</v>
+        <v>5512.5</v>
       </c>
       <c r="P51" t="n">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="Q51" t="n">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="R51" t="n">
-        <v>174.36</v>
+        <v>73.59999999999999</v>
       </c>
       <c r="S51" t="n">
-        <v>128.3</v>
+        <v>187.25</v>
       </c>
       <c r="T51" t="n">
-        <v>49.54</v>
+        <v>44.6</v>
       </c>
       <c r="U51" t="n">
-        <v>76.98</v>
+        <v>112.35</v>
       </c>
       <c r="V51" t="n">
-        <v>51.32</v>
+        <v>74.90000000000001</v>
       </c>
       <c r="W51" t="n">
-        <v>26.82</v>
+        <v>7.31</v>
       </c>
       <c r="X51" t="n">
-        <v>25.23</v>
+        <v>26.56</v>
       </c>
       <c r="Y51" t="n">
-        <v>174.36</v>
+        <v>73.59999999999999</v>
       </c>
       <c r="Z51" t="n">
-        <v>0.921</v>
+        <v>0.424</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>2026-01-19 12:44:09</t>
+          <t>2026-01-14 13:56:33</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -6189,7 +6439,7 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>Mouse session - Score: 0.270</t>
+          <t>Mouse session - Score: 0.322</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
@@ -6199,7 +6449,7 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>MOUSE_20260119_002</t>
+          <t>MOUSE_20260114_002</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
@@ -6212,12 +6462,12 @@
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>2026-01-19</t>
+          <t>2026-01-14</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>12:44:09</t>
+          <t>13:56:33</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
@@ -6226,58 +6476,58 @@
         </is>
       </c>
       <c r="K52" t="n">
-        <v>19263</v>
+        <v>12030</v>
       </c>
       <c r="L52" t="n">
-        <v>19263</v>
+        <v>12030</v>
       </c>
       <c r="M52" t="n">
-        <v>33066.85</v>
+        <v>26924.37</v>
       </c>
       <c r="N52" t="n">
-        <v>19840.11</v>
+        <v>16154.62</v>
       </c>
       <c r="O52" t="n">
-        <v>13226.74</v>
+        <v>10769.75</v>
       </c>
       <c r="P52" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="Q52" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="R52" t="n">
-        <v>114.5</v>
+        <v>120.11</v>
       </c>
       <c r="S52" t="n">
-        <v>288.8</v>
+        <v>224.16</v>
       </c>
       <c r="T52" t="n">
-        <v>15.05</v>
+        <v>48.63</v>
       </c>
       <c r="U52" t="n">
-        <v>173.28</v>
+        <v>134.5</v>
       </c>
       <c r="V52" t="n">
-        <v>115.52</v>
+        <v>89.67</v>
       </c>
       <c r="W52" t="n">
-        <v>13.56</v>
+        <v>2.79</v>
       </c>
       <c r="X52" t="n">
-        <v>9.640000000000001</v>
+        <v>18.91</v>
       </c>
       <c r="Y52" t="n">
-        <v>114.5</v>
+        <v>120.11</v>
       </c>
       <c r="Z52" t="n">
-        <v>0.27</v>
+        <v>0.322</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>2026-01-20 14:12:34</t>
+          <t>2026-01-14 11:06:07</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -6287,7 +6537,7 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>Mouse session - Score: 0.371</t>
+          <t>Mouse session - Score: 0.410</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
@@ -6297,7 +6547,7 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>MOUSE_20260120_000</t>
+          <t>MOUSE_20260114_003</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
@@ -6310,12 +6560,12 @@
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>2026-01-20</t>
+          <t>2026-01-14</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>14:12:34</t>
+          <t>11:06:07</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
@@ -6324,58 +6574,58 @@
         </is>
       </c>
       <c r="K53" t="n">
-        <v>15226</v>
+        <v>22087</v>
       </c>
       <c r="L53" t="n">
-        <v>15226</v>
+        <v>22087</v>
       </c>
       <c r="M53" t="n">
-        <v>15729.35</v>
+        <v>16053.99</v>
       </c>
       <c r="N53" t="n">
-        <v>9437.610000000001</v>
+        <v>9632.4</v>
       </c>
       <c r="O53" t="n">
-        <v>6291.74</v>
+        <v>6421.6</v>
       </c>
       <c r="P53" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="Q53" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="R53" t="n">
-        <v>137.03</v>
+        <v>128.17</v>
       </c>
       <c r="S53" t="n">
-        <v>114.79</v>
+        <v>125.26</v>
       </c>
       <c r="T53" t="n">
-        <v>44.17</v>
+        <v>30.32</v>
       </c>
       <c r="U53" t="n">
-        <v>68.87</v>
+        <v>75.15000000000001</v>
       </c>
       <c r="V53" t="n">
-        <v>45.92</v>
+        <v>50.1</v>
       </c>
       <c r="W53" t="n">
-        <v>11.72</v>
+        <v>11.12</v>
       </c>
       <c r="X53" t="n">
-        <v>15.41</v>
+        <v>19.52</v>
       </c>
       <c r="Y53" t="n">
-        <v>137.03</v>
+        <v>128.17</v>
       </c>
       <c r="Z53" t="n">
-        <v>0.371</v>
+        <v>0.41</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>2026-01-20 09:19:22</t>
+          <t>2026-01-15 14:14:19</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -6385,7 +6635,7 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>Mouse session - Score: 0.287</t>
+          <t>Mouse session - Score: 0.406</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
@@ -6395,7 +6645,7 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>MOUSE_20260120_001</t>
+          <t>MOUSE_20260115_000</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
@@ -6408,12 +6658,12 @@
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>2026-01-20</t>
+          <t>2026-01-15</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>09:19:22</t>
+          <t>14:14:19</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
@@ -6422,58 +6672,58 @@
         </is>
       </c>
       <c r="K54" t="n">
-        <v>19526</v>
+        <v>25022</v>
       </c>
       <c r="L54" t="n">
-        <v>19526</v>
+        <v>25022</v>
       </c>
       <c r="M54" t="n">
-        <v>9109.309999999999</v>
+        <v>29793.37</v>
       </c>
       <c r="N54" t="n">
-        <v>5465.59</v>
+        <v>17876.02</v>
       </c>
       <c r="O54" t="n">
-        <v>3643.72</v>
+        <v>11917.35</v>
       </c>
       <c r="P54" t="n">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="Q54" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="R54" t="n">
-        <v>71.39</v>
+        <v>41.44</v>
       </c>
       <c r="S54" t="n">
-        <v>127.6</v>
+        <v>718.95</v>
       </c>
       <c r="T54" t="n">
-        <v>29.91</v>
+        <v>28.94</v>
       </c>
       <c r="U54" t="n">
-        <v>76.56</v>
+        <v>431.37</v>
       </c>
       <c r="V54" t="n">
-        <v>51.04</v>
+        <v>287.58</v>
       </c>
       <c r="W54" t="n">
-        <v>13.19</v>
+        <v>16.59</v>
       </c>
       <c r="X54" t="n">
-        <v>25.53</v>
+        <v>2.02</v>
       </c>
       <c r="Y54" t="n">
-        <v>71.39</v>
+        <v>41.44</v>
       </c>
       <c r="Z54" t="n">
-        <v>0.287</v>
+        <v>0.406</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>2026-01-20 13:17:47</t>
+          <t>2026-01-15 16:21:11</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
@@ -6483,7 +6733,7 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>Mouse session - Score: 0.365</t>
+          <t>Mouse session - Score: 0.443</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
@@ -6493,7 +6743,7 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>MOUSE_20260120_002</t>
+          <t>MOUSE_20260115_001</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
@@ -6506,66 +6756,1830 @@
       </c>
       <c r="H55" t="inlineStr">
         <is>
+          <t>2026-01-15</t>
+        </is>
+      </c>
+      <c r="I55" t="inlineStr">
+        <is>
+          <t>16:21:11</t>
+        </is>
+      </c>
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>Mouse</t>
+        </is>
+      </c>
+      <c r="K55" t="n">
+        <v>26747</v>
+      </c>
+      <c r="L55" t="n">
+        <v>26747</v>
+      </c>
+      <c r="M55" t="n">
+        <v>10381.22</v>
+      </c>
+      <c r="N55" t="n">
+        <v>6228.73</v>
+      </c>
+      <c r="O55" t="n">
+        <v>4152.49</v>
+      </c>
+      <c r="P55" t="n">
+        <v>16</v>
+      </c>
+      <c r="Q55" t="n">
+        <v>28</v>
+      </c>
+      <c r="R55" t="n">
+        <v>157.69</v>
+      </c>
+      <c r="S55" t="n">
+        <v>65.83</v>
+      </c>
+      <c r="T55" t="n">
+        <v>30.4</v>
+      </c>
+      <c r="U55" t="n">
+        <v>39.5</v>
+      </c>
+      <c r="V55" t="n">
+        <v>26.33</v>
+      </c>
+      <c r="W55" t="n">
+        <v>11.69</v>
+      </c>
+      <c r="X55" t="n">
+        <v>3.87</v>
+      </c>
+      <c r="Y55" t="n">
+        <v>157.69</v>
+      </c>
+      <c r="Z55" t="n">
+        <v>0.443</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>2026-01-15 13:07:24</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>MOUSE_SESSION</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>Mouse session - Score: 0.416</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>EM003</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>MOUSE_20260115_002</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>INFO</t>
+        </is>
+      </c>
+      <c r="G56" t="n">
+        <v>0</v>
+      </c>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>2026-01-15</t>
+        </is>
+      </c>
+      <c r="I56" t="inlineStr">
+        <is>
+          <t>13:07:24</t>
+        </is>
+      </c>
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>Mouse</t>
+        </is>
+      </c>
+      <c r="K56" t="n">
+        <v>29504</v>
+      </c>
+      <c r="L56" t="n">
+        <v>29504</v>
+      </c>
+      <c r="M56" t="n">
+        <v>16531.9</v>
+      </c>
+      <c r="N56" t="n">
+        <v>9919.139999999999</v>
+      </c>
+      <c r="O56" t="n">
+        <v>6612.76</v>
+      </c>
+      <c r="P56" t="n">
+        <v>25</v>
+      </c>
+      <c r="Q56" t="n">
+        <v>7</v>
+      </c>
+      <c r="R56" t="n">
+        <v>153.39</v>
+      </c>
+      <c r="S56" t="n">
+        <v>107.78</v>
+      </c>
+      <c r="T56" t="n">
+        <v>12.07</v>
+      </c>
+      <c r="U56" t="n">
+        <v>64.67</v>
+      </c>
+      <c r="V56" t="n">
+        <v>43.11</v>
+      </c>
+      <c r="W56" t="n">
+        <v>23.58</v>
+      </c>
+      <c r="X56" t="n">
+        <v>12.7</v>
+      </c>
+      <c r="Y56" t="n">
+        <v>153.39</v>
+      </c>
+      <c r="Z56" t="n">
+        <v>0.416</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>2026-01-15 14:20:08</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>MOUSE_SESSION</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>Mouse session - Score: 0.328</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>EM003</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>MOUSE_20260115_003</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>INFO</t>
+        </is>
+      </c>
+      <c r="G57" t="n">
+        <v>0</v>
+      </c>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>2026-01-15</t>
+        </is>
+      </c>
+      <c r="I57" t="inlineStr">
+        <is>
+          <t>14:20:08</t>
+        </is>
+      </c>
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>Mouse</t>
+        </is>
+      </c>
+      <c r="K57" t="n">
+        <v>27909</v>
+      </c>
+      <c r="L57" t="n">
+        <v>27909</v>
+      </c>
+      <c r="M57" t="n">
+        <v>23843.11</v>
+      </c>
+      <c r="N57" t="n">
+        <v>14305.87</v>
+      </c>
+      <c r="O57" t="n">
+        <v>9537.24</v>
+      </c>
+      <c r="P57" t="n">
+        <v>27</v>
+      </c>
+      <c r="Q57" t="n">
+        <v>24</v>
+      </c>
+      <c r="R57" t="n">
+        <v>141.95</v>
+      </c>
+      <c r="S57" t="n">
+        <v>167.97</v>
+      </c>
+      <c r="T57" t="n">
+        <v>31.59</v>
+      </c>
+      <c r="U57" t="n">
+        <v>100.78</v>
+      </c>
+      <c r="V57" t="n">
+        <v>67.19</v>
+      </c>
+      <c r="W57" t="n">
+        <v>26.58</v>
+      </c>
+      <c r="X57" t="n">
+        <v>6.24</v>
+      </c>
+      <c r="Y57" t="n">
+        <v>141.95</v>
+      </c>
+      <c r="Z57" t="n">
+        <v>0.328</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>2026-01-16 17:16:34</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>MOUSE_SESSION</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>Mouse session - Score: 0.299</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>EM003</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>MOUSE_20260116_000</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>INFO</t>
+        </is>
+      </c>
+      <c r="G58" t="n">
+        <v>0</v>
+      </c>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>2026-01-16</t>
+        </is>
+      </c>
+      <c r="I58" t="inlineStr">
+        <is>
+          <t>17:16:34</t>
+        </is>
+      </c>
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>Mouse</t>
+        </is>
+      </c>
+      <c r="K58" t="n">
+        <v>13124</v>
+      </c>
+      <c r="L58" t="n">
+        <v>13124</v>
+      </c>
+      <c r="M58" t="n">
+        <v>16070.94</v>
+      </c>
+      <c r="N58" t="n">
+        <v>9642.559999999999</v>
+      </c>
+      <c r="O58" t="n">
+        <v>6428.37</v>
+      </c>
+      <c r="P58" t="n">
+        <v>45</v>
+      </c>
+      <c r="Q58" t="n">
+        <v>29</v>
+      </c>
+      <c r="R58" t="n">
+        <v>60.91</v>
+      </c>
+      <c r="S58" t="n">
+        <v>263.85</v>
+      </c>
+      <c r="T58" t="n">
+        <v>25.65</v>
+      </c>
+      <c r="U58" t="n">
+        <v>158.31</v>
+      </c>
+      <c r="V58" t="n">
+        <v>105.54</v>
+      </c>
+      <c r="W58" t="n">
+        <v>19.08</v>
+      </c>
+      <c r="X58" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="Y58" t="n">
+        <v>60.91</v>
+      </c>
+      <c r="Z58" t="n">
+        <v>0.299</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>2026-01-16 10:14:46</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>MOUSE_SESSION</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>Mouse session - Score: 0.277</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>EM003</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>MOUSE_20260116_001</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>INFO</t>
+        </is>
+      </c>
+      <c r="G59" t="n">
+        <v>0</v>
+      </c>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>2026-01-16</t>
+        </is>
+      </c>
+      <c r="I59" t="inlineStr">
+        <is>
+          <t>10:14:46</t>
+        </is>
+      </c>
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>Mouse</t>
+        </is>
+      </c>
+      <c r="K59" t="n">
+        <v>21066</v>
+      </c>
+      <c r="L59" t="n">
+        <v>21066</v>
+      </c>
+      <c r="M59" t="n">
+        <v>17818.82</v>
+      </c>
+      <c r="N59" t="n">
+        <v>10691.29</v>
+      </c>
+      <c r="O59" t="n">
+        <v>7127.53</v>
+      </c>
+      <c r="P59" t="n">
+        <v>29</v>
+      </c>
+      <c r="Q59" t="n">
+        <v>16</v>
+      </c>
+      <c r="R59" t="n">
+        <v>177.09</v>
+      </c>
+      <c r="S59" t="n">
+        <v>100.62</v>
+      </c>
+      <c r="T59" t="n">
+        <v>39.28</v>
+      </c>
+      <c r="U59" t="n">
+        <v>60.37</v>
+      </c>
+      <c r="V59" t="n">
+        <v>40.25</v>
+      </c>
+      <c r="W59" t="n">
+        <v>20.98</v>
+      </c>
+      <c r="X59" t="n">
+        <v>3.67</v>
+      </c>
+      <c r="Y59" t="n">
+        <v>177.09</v>
+      </c>
+      <c r="Z59" t="n">
+        <v>0.277</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>2026-01-16 11:33:45</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>MOUSE_SESSION</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>Mouse session - Score: 0.299</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>EM003</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>MOUSE_20260116_002</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>INFO</t>
+        </is>
+      </c>
+      <c r="G60" t="n">
+        <v>0</v>
+      </c>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>2026-01-16</t>
+        </is>
+      </c>
+      <c r="I60" t="inlineStr">
+        <is>
+          <t>11:33:45</t>
+        </is>
+      </c>
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>Mouse</t>
+        </is>
+      </c>
+      <c r="K60" t="n">
+        <v>10338</v>
+      </c>
+      <c r="L60" t="n">
+        <v>10338</v>
+      </c>
+      <c r="M60" t="n">
+        <v>37460.28</v>
+      </c>
+      <c r="N60" t="n">
+        <v>22476.17</v>
+      </c>
+      <c r="O60" t="n">
+        <v>14984.11</v>
+      </c>
+      <c r="P60" t="n">
+        <v>40</v>
+      </c>
+      <c r="Q60" t="n">
+        <v>18</v>
+      </c>
+      <c r="R60" t="n">
+        <v>98.95</v>
+      </c>
+      <c r="S60" t="n">
+        <v>378.56</v>
+      </c>
+      <c r="T60" t="n">
+        <v>33.84</v>
+      </c>
+      <c r="U60" t="n">
+        <v>227.14</v>
+      </c>
+      <c r="V60" t="n">
+        <v>151.42</v>
+      </c>
+      <c r="W60" t="n">
+        <v>25.18</v>
+      </c>
+      <c r="X60" t="n">
+        <v>28.88</v>
+      </c>
+      <c r="Y60" t="n">
+        <v>98.95</v>
+      </c>
+      <c r="Z60" t="n">
+        <v>0.299</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>2026-01-16 10:39:23</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>MOUSE_SESSION</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>Mouse session - Score: 0.314</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>EM003</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>MOUSE_20260116_003</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>INFO</t>
+        </is>
+      </c>
+      <c r="G61" t="n">
+        <v>0</v>
+      </c>
+      <c r="H61" t="inlineStr">
+        <is>
+          <t>2026-01-16</t>
+        </is>
+      </c>
+      <c r="I61" t="inlineStr">
+        <is>
+          <t>10:39:23</t>
+        </is>
+      </c>
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>Mouse</t>
+        </is>
+      </c>
+      <c r="K61" t="n">
+        <v>29478</v>
+      </c>
+      <c r="L61" t="n">
+        <v>29478</v>
+      </c>
+      <c r="M61" t="n">
+        <v>19229.92</v>
+      </c>
+      <c r="N61" t="n">
+        <v>11537.95</v>
+      </c>
+      <c r="O61" t="n">
+        <v>7691.97</v>
+      </c>
+      <c r="P61" t="n">
+        <v>50</v>
+      </c>
+      <c r="Q61" t="n">
+        <v>13</v>
+      </c>
+      <c r="R61" t="n">
+        <v>39.49</v>
+      </c>
+      <c r="S61" t="n">
+        <v>487.02</v>
+      </c>
+      <c r="T61" t="n">
+        <v>35.69</v>
+      </c>
+      <c r="U61" t="n">
+        <v>292.21</v>
+      </c>
+      <c r="V61" t="n">
+        <v>194.81</v>
+      </c>
+      <c r="W61" t="n">
+        <v>3.84</v>
+      </c>
+      <c r="X61" t="n">
+        <v>29.24</v>
+      </c>
+      <c r="Y61" t="n">
+        <v>39.49</v>
+      </c>
+      <c r="Z61" t="n">
+        <v>0.314</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>2026-01-17 11:52:20</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>MOUSE_SESSION</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>Mouse session - Score: 0.334</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>EM003</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>MOUSE_20260117_000</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>INFO</t>
+        </is>
+      </c>
+      <c r="G62" t="n">
+        <v>0</v>
+      </c>
+      <c r="H62" t="inlineStr">
+        <is>
+          <t>2026-01-17</t>
+        </is>
+      </c>
+      <c r="I62" t="inlineStr">
+        <is>
+          <t>11:52:20</t>
+        </is>
+      </c>
+      <c r="J62" t="inlineStr">
+        <is>
+          <t>Mouse</t>
+        </is>
+      </c>
+      <c r="K62" t="n">
+        <v>19396</v>
+      </c>
+      <c r="L62" t="n">
+        <v>19396</v>
+      </c>
+      <c r="M62" t="n">
+        <v>20283.26</v>
+      </c>
+      <c r="N62" t="n">
+        <v>12169.95</v>
+      </c>
+      <c r="O62" t="n">
+        <v>8113.3</v>
+      </c>
+      <c r="P62" t="n">
+        <v>40</v>
+      </c>
+      <c r="Q62" t="n">
+        <v>9</v>
+      </c>
+      <c r="R62" t="n">
+        <v>173.34</v>
+      </c>
+      <c r="S62" t="n">
+        <v>117.01</v>
+      </c>
+      <c r="T62" t="n">
+        <v>12.38</v>
+      </c>
+      <c r="U62" t="n">
+        <v>70.20999999999999</v>
+      </c>
+      <c r="V62" t="n">
+        <v>46.81</v>
+      </c>
+      <c r="W62" t="n">
+        <v>17.34</v>
+      </c>
+      <c r="X62" t="n">
+        <v>6.17</v>
+      </c>
+      <c r="Y62" t="n">
+        <v>173.34</v>
+      </c>
+      <c r="Z62" t="n">
+        <v>0.334</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>2026-01-17 13:12:26</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>MOUSE_SESSION</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>Mouse session - Score: 0.375</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>EM003</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>MOUSE_20260117_001</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>INFO</t>
+        </is>
+      </c>
+      <c r="G63" t="n">
+        <v>0</v>
+      </c>
+      <c r="H63" t="inlineStr">
+        <is>
+          <t>2026-01-17</t>
+        </is>
+      </c>
+      <c r="I63" t="inlineStr">
+        <is>
+          <t>13:12:26</t>
+        </is>
+      </c>
+      <c r="J63" t="inlineStr">
+        <is>
+          <t>Mouse</t>
+        </is>
+      </c>
+      <c r="K63" t="n">
+        <v>16492</v>
+      </c>
+      <c r="L63" t="n">
+        <v>16492</v>
+      </c>
+      <c r="M63" t="n">
+        <v>34760.42</v>
+      </c>
+      <c r="N63" t="n">
+        <v>20856.25</v>
+      </c>
+      <c r="O63" t="n">
+        <v>13904.17</v>
+      </c>
+      <c r="P63" t="n">
+        <v>46</v>
+      </c>
+      <c r="Q63" t="n">
+        <v>17</v>
+      </c>
+      <c r="R63" t="n">
+        <v>34.4</v>
+      </c>
+      <c r="S63" t="n">
+        <v>1010.56</v>
+      </c>
+      <c r="T63" t="n">
+        <v>27.34</v>
+      </c>
+      <c r="U63" t="n">
+        <v>606.34</v>
+      </c>
+      <c r="V63" t="n">
+        <v>404.23</v>
+      </c>
+      <c r="W63" t="n">
+        <v>26.05</v>
+      </c>
+      <c r="X63" t="n">
+        <v>24.5</v>
+      </c>
+      <c r="Y63" t="n">
+        <v>34.4</v>
+      </c>
+      <c r="Z63" t="n">
+        <v>0.375</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>2026-01-17 13:19:59</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>MOUSE_SESSION</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>Mouse session - Score: 0.374</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>EM003</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>MOUSE_20260117_002</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>INFO</t>
+        </is>
+      </c>
+      <c r="G64" t="n">
+        <v>0</v>
+      </c>
+      <c r="H64" t="inlineStr">
+        <is>
+          <t>2026-01-17</t>
+        </is>
+      </c>
+      <c r="I64" t="inlineStr">
+        <is>
+          <t>13:19:59</t>
+        </is>
+      </c>
+      <c r="J64" t="inlineStr">
+        <is>
+          <t>Mouse</t>
+        </is>
+      </c>
+      <c r="K64" t="n">
+        <v>27795</v>
+      </c>
+      <c r="L64" t="n">
+        <v>27795</v>
+      </c>
+      <c r="M64" t="n">
+        <v>25823.31</v>
+      </c>
+      <c r="N64" t="n">
+        <v>15493.98</v>
+      </c>
+      <c r="O64" t="n">
+        <v>10329.32</v>
+      </c>
+      <c r="P64" t="n">
+        <v>12</v>
+      </c>
+      <c r="Q64" t="n">
+        <v>15</v>
+      </c>
+      <c r="R64" t="n">
+        <v>106.39</v>
+      </c>
+      <c r="S64" t="n">
+        <v>242.72</v>
+      </c>
+      <c r="T64" t="n">
+        <v>41.76</v>
+      </c>
+      <c r="U64" t="n">
+        <v>145.63</v>
+      </c>
+      <c r="V64" t="n">
+        <v>97.09</v>
+      </c>
+      <c r="W64" t="n">
+        <v>23</v>
+      </c>
+      <c r="X64" t="n">
+        <v>4</v>
+      </c>
+      <c r="Y64" t="n">
+        <v>106.39</v>
+      </c>
+      <c r="Z64" t="n">
+        <v>0.374</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>2026-01-17 13:54:37</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>MOUSE_SESSION</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>Mouse session - Score: 0.344</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>EM003</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>MOUSE_20260117_003</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>INFO</t>
+        </is>
+      </c>
+      <c r="G65" t="n">
+        <v>0</v>
+      </c>
+      <c r="H65" t="inlineStr">
+        <is>
+          <t>2026-01-17</t>
+        </is>
+      </c>
+      <c r="I65" t="inlineStr">
+        <is>
+          <t>13:54:37</t>
+        </is>
+      </c>
+      <c r="J65" t="inlineStr">
+        <is>
+          <t>Mouse</t>
+        </is>
+      </c>
+      <c r="K65" t="n">
+        <v>25661</v>
+      </c>
+      <c r="L65" t="n">
+        <v>25661</v>
+      </c>
+      <c r="M65" t="n">
+        <v>9075.74</v>
+      </c>
+      <c r="N65" t="n">
+        <v>5445.44</v>
+      </c>
+      <c r="O65" t="n">
+        <v>3630.3</v>
+      </c>
+      <c r="P65" t="n">
+        <v>11</v>
+      </c>
+      <c r="Q65" t="n">
+        <v>3</v>
+      </c>
+      <c r="R65" t="n">
+        <v>117.68</v>
+      </c>
+      <c r="S65" t="n">
+        <v>77.12</v>
+      </c>
+      <c r="T65" t="n">
+        <v>48.37</v>
+      </c>
+      <c r="U65" t="n">
+        <v>46.27</v>
+      </c>
+      <c r="V65" t="n">
+        <v>30.85</v>
+      </c>
+      <c r="W65" t="n">
+        <v>15</v>
+      </c>
+      <c r="X65" t="n">
+        <v>25.9</v>
+      </c>
+      <c r="Y65" t="n">
+        <v>117.68</v>
+      </c>
+      <c r="Z65" t="n">
+        <v>0.344</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>2026-01-19 15:08:58</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>MOUSE_SESSION</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>Mouse session - Score: 0.301</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>EM003</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>MOUSE_20260119_000</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>INFO</t>
+        </is>
+      </c>
+      <c r="G66" t="n">
+        <v>0</v>
+      </c>
+      <c r="H66" t="inlineStr">
+        <is>
+          <t>2026-01-19</t>
+        </is>
+      </c>
+      <c r="I66" t="inlineStr">
+        <is>
+          <t>15:08:58</t>
+        </is>
+      </c>
+      <c r="J66" t="inlineStr">
+        <is>
+          <t>Mouse</t>
+        </is>
+      </c>
+      <c r="K66" t="n">
+        <v>12386</v>
+      </c>
+      <c r="L66" t="n">
+        <v>12386</v>
+      </c>
+      <c r="M66" t="n">
+        <v>17607.06</v>
+      </c>
+      <c r="N66" t="n">
+        <v>10564.24</v>
+      </c>
+      <c r="O66" t="n">
+        <v>7042.83</v>
+      </c>
+      <c r="P66" t="n">
+        <v>31</v>
+      </c>
+      <c r="Q66" t="n">
+        <v>3</v>
+      </c>
+      <c r="R66" t="n">
+        <v>82.15000000000001</v>
+      </c>
+      <c r="S66" t="n">
+        <v>214.32</v>
+      </c>
+      <c r="T66" t="n">
+        <v>36.44</v>
+      </c>
+      <c r="U66" t="n">
+        <v>128.59</v>
+      </c>
+      <c r="V66" t="n">
+        <v>85.73</v>
+      </c>
+      <c r="W66" t="n">
+        <v>12.15</v>
+      </c>
+      <c r="X66" t="n">
+        <v>3.23</v>
+      </c>
+      <c r="Y66" t="n">
+        <v>82.15000000000001</v>
+      </c>
+      <c r="Z66" t="n">
+        <v>0.301</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>2026-01-19 11:27:42</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>MOUSE_SESSION</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>Mouse session - Score: 0.285</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>EM003</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>MOUSE_20260119_001</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>INFO</t>
+        </is>
+      </c>
+      <c r="G67" t="n">
+        <v>0</v>
+      </c>
+      <c r="H67" t="inlineStr">
+        <is>
+          <t>2026-01-19</t>
+        </is>
+      </c>
+      <c r="I67" t="inlineStr">
+        <is>
+          <t>11:27:42</t>
+        </is>
+      </c>
+      <c r="J67" t="inlineStr">
+        <is>
+          <t>Mouse</t>
+        </is>
+      </c>
+      <c r="K67" t="n">
+        <v>9559</v>
+      </c>
+      <c r="L67" t="n">
+        <v>9559</v>
+      </c>
+      <c r="M67" t="n">
+        <v>9198.58</v>
+      </c>
+      <c r="N67" t="n">
+        <v>5519.15</v>
+      </c>
+      <c r="O67" t="n">
+        <v>3679.43</v>
+      </c>
+      <c r="P67" t="n">
+        <v>43</v>
+      </c>
+      <c r="Q67" t="n">
+        <v>22</v>
+      </c>
+      <c r="R67" t="n">
+        <v>36.59</v>
+      </c>
+      <c r="S67" t="n">
+        <v>251.36</v>
+      </c>
+      <c r="T67" t="n">
+        <v>13.61</v>
+      </c>
+      <c r="U67" t="n">
+        <v>150.82</v>
+      </c>
+      <c r="V67" t="n">
+        <v>100.55</v>
+      </c>
+      <c r="W67" t="n">
+        <v>23.68</v>
+      </c>
+      <c r="X67" t="n">
+        <v>23.73</v>
+      </c>
+      <c r="Y67" t="n">
+        <v>36.59</v>
+      </c>
+      <c r="Z67" t="n">
+        <v>0.285</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>2026-01-19 17:19:17</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>MOUSE_SESSION</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>Mouse session - Score: 0.443</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>EM003</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>MOUSE_20260119_002</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>INFO</t>
+        </is>
+      </c>
+      <c r="G68" t="n">
+        <v>0</v>
+      </c>
+      <c r="H68" t="inlineStr">
+        <is>
+          <t>2026-01-19</t>
+        </is>
+      </c>
+      <c r="I68" t="inlineStr">
+        <is>
+          <t>17:19:17</t>
+        </is>
+      </c>
+      <c r="J68" t="inlineStr">
+        <is>
+          <t>Mouse</t>
+        </is>
+      </c>
+      <c r="K68" t="n">
+        <v>14166</v>
+      </c>
+      <c r="L68" t="n">
+        <v>14166</v>
+      </c>
+      <c r="M68" t="n">
+        <v>24933.25</v>
+      </c>
+      <c r="N68" t="n">
+        <v>14959.95</v>
+      </c>
+      <c r="O68" t="n">
+        <v>9973.299999999999</v>
+      </c>
+      <c r="P68" t="n">
+        <v>14</v>
+      </c>
+      <c r="Q68" t="n">
+        <v>10</v>
+      </c>
+      <c r="R68" t="n">
+        <v>133.28</v>
+      </c>
+      <c r="S68" t="n">
+        <v>187.08</v>
+      </c>
+      <c r="T68" t="n">
+        <v>32.74</v>
+      </c>
+      <c r="U68" t="n">
+        <v>112.25</v>
+      </c>
+      <c r="V68" t="n">
+        <v>74.83</v>
+      </c>
+      <c r="W68" t="n">
+        <v>6.51</v>
+      </c>
+      <c r="X68" t="n">
+        <v>2.59</v>
+      </c>
+      <c r="Y68" t="n">
+        <v>133.28</v>
+      </c>
+      <c r="Z68" t="n">
+        <v>0.443</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>2026-01-19 17:54:23</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>MOUSE_SESSION</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>Mouse session - Score: 0.326</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>EM003</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>MOUSE_20260119_003</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>INFO</t>
+        </is>
+      </c>
+      <c r="G69" t="n">
+        <v>0</v>
+      </c>
+      <c r="H69" t="inlineStr">
+        <is>
+          <t>2026-01-19</t>
+        </is>
+      </c>
+      <c r="I69" t="inlineStr">
+        <is>
+          <t>17:54:23</t>
+        </is>
+      </c>
+      <c r="J69" t="inlineStr">
+        <is>
+          <t>Mouse</t>
+        </is>
+      </c>
+      <c r="K69" t="n">
+        <v>10033</v>
+      </c>
+      <c r="L69" t="n">
+        <v>10033</v>
+      </c>
+      <c r="M69" t="n">
+        <v>30249.85</v>
+      </c>
+      <c r="N69" t="n">
+        <v>18149.91</v>
+      </c>
+      <c r="O69" t="n">
+        <v>12099.94</v>
+      </c>
+      <c r="P69" t="n">
+        <v>26</v>
+      </c>
+      <c r="Q69" t="n">
+        <v>25</v>
+      </c>
+      <c r="R69" t="n">
+        <v>172.45</v>
+      </c>
+      <c r="S69" t="n">
+        <v>175.41</v>
+      </c>
+      <c r="T69" t="n">
+        <v>25.17</v>
+      </c>
+      <c r="U69" t="n">
+        <v>105.25</v>
+      </c>
+      <c r="V69" t="n">
+        <v>70.16</v>
+      </c>
+      <c r="W69" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="X69" t="n">
+        <v>28.33</v>
+      </c>
+      <c r="Y69" t="n">
+        <v>172.45</v>
+      </c>
+      <c r="Z69" t="n">
+        <v>0.326</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>2026-01-20 15:52:41</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>MOUSE_SESSION</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>Mouse session - Score: 0.305</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>EM003</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>MOUSE_20260120_000</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>INFO</t>
+        </is>
+      </c>
+      <c r="G70" t="n">
+        <v>0</v>
+      </c>
+      <c r="H70" t="inlineStr">
+        <is>
           <t>2026-01-20</t>
         </is>
       </c>
-      <c r="I55" t="inlineStr">
-        <is>
-          <t>13:17:47</t>
-        </is>
-      </c>
-      <c r="J55" t="inlineStr">
+      <c r="I70" t="inlineStr">
+        <is>
+          <t>15:52:41</t>
+        </is>
+      </c>
+      <c r="J70" t="inlineStr">
         <is>
           <t>Mouse</t>
         </is>
       </c>
-      <c r="K55" t="n">
-        <v>8999</v>
-      </c>
-      <c r="L55" t="n">
-        <v>8999</v>
-      </c>
-      <c r="M55" t="n">
-        <v>25839.92</v>
-      </c>
-      <c r="N55" t="n">
-        <v>15503.95</v>
-      </c>
-      <c r="O55" t="n">
-        <v>10335.97</v>
-      </c>
-      <c r="P55" t="n">
-        <v>49</v>
-      </c>
-      <c r="Q55" t="n">
-        <v>29</v>
-      </c>
-      <c r="R55" t="n">
-        <v>150.24</v>
-      </c>
-      <c r="S55" t="n">
-        <v>171.99</v>
-      </c>
-      <c r="T55" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="U55" t="n">
-        <v>103.2</v>
-      </c>
-      <c r="V55" t="n">
-        <v>68.8</v>
-      </c>
-      <c r="W55" t="n">
-        <v>13.79</v>
-      </c>
-      <c r="X55" t="n">
-        <v>27.17</v>
-      </c>
-      <c r="Y55" t="n">
-        <v>150.24</v>
-      </c>
-      <c r="Z55" t="n">
-        <v>0.365</v>
+      <c r="K70" t="n">
+        <v>25580</v>
+      </c>
+      <c r="L70" t="n">
+        <v>25580</v>
+      </c>
+      <c r="M70" t="n">
+        <v>22978.11</v>
+      </c>
+      <c r="N70" t="n">
+        <v>13786.87</v>
+      </c>
+      <c r="O70" t="n">
+        <v>9191.24</v>
+      </c>
+      <c r="P70" t="n">
+        <v>40</v>
+      </c>
+      <c r="Q70" t="n">
+        <v>0</v>
+      </c>
+      <c r="R70" t="n">
+        <v>44.81</v>
+      </c>
+      <c r="S70" t="n">
+        <v>512.83</v>
+      </c>
+      <c r="T70" t="n">
+        <v>18.94</v>
+      </c>
+      <c r="U70" t="n">
+        <v>307.7</v>
+      </c>
+      <c r="V70" t="n">
+        <v>205.13</v>
+      </c>
+      <c r="W70" t="n">
+        <v>26.23</v>
+      </c>
+      <c r="X70" t="n">
+        <v>17.53</v>
+      </c>
+      <c r="Y70" t="n">
+        <v>44.81</v>
+      </c>
+      <c r="Z70" t="n">
+        <v>0.305</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>2026-01-20 12:19:07</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>MOUSE_SESSION</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>Mouse session - Score: 0.384</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>EM003</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>MOUSE_20260120_001</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>INFO</t>
+        </is>
+      </c>
+      <c r="G71" t="n">
+        <v>0</v>
+      </c>
+      <c r="H71" t="inlineStr">
+        <is>
+          <t>2026-01-20</t>
+        </is>
+      </c>
+      <c r="I71" t="inlineStr">
+        <is>
+          <t>12:19:07</t>
+        </is>
+      </c>
+      <c r="J71" t="inlineStr">
+        <is>
+          <t>Mouse</t>
+        </is>
+      </c>
+      <c r="K71" t="n">
+        <v>20314</v>
+      </c>
+      <c r="L71" t="n">
+        <v>20314</v>
+      </c>
+      <c r="M71" t="n">
+        <v>37519.65</v>
+      </c>
+      <c r="N71" t="n">
+        <v>22511.79</v>
+      </c>
+      <c r="O71" t="n">
+        <v>15007.86</v>
+      </c>
+      <c r="P71" t="n">
+        <v>23</v>
+      </c>
+      <c r="Q71" t="n">
+        <v>11</v>
+      </c>
+      <c r="R71" t="n">
+        <v>149.79</v>
+      </c>
+      <c r="S71" t="n">
+        <v>250.48</v>
+      </c>
+      <c r="T71" t="n">
+        <v>38.59</v>
+      </c>
+      <c r="U71" t="n">
+        <v>150.29</v>
+      </c>
+      <c r="V71" t="n">
+        <v>100.19</v>
+      </c>
+      <c r="W71" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="X71" t="n">
+        <v>9.74</v>
+      </c>
+      <c r="Y71" t="n">
+        <v>149.79</v>
+      </c>
+      <c r="Z71" t="n">
+        <v>0.384</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>2026-01-20 15:56:48</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>MOUSE_SESSION</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>Mouse session - Score: 0.449</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>EM003</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>MOUSE_20260120_002</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>INFO</t>
+        </is>
+      </c>
+      <c r="G72" t="n">
+        <v>0</v>
+      </c>
+      <c r="H72" t="inlineStr">
+        <is>
+          <t>2026-01-20</t>
+        </is>
+      </c>
+      <c r="I72" t="inlineStr">
+        <is>
+          <t>15:56:48</t>
+        </is>
+      </c>
+      <c r="J72" t="inlineStr">
+        <is>
+          <t>Mouse</t>
+        </is>
+      </c>
+      <c r="K72" t="n">
+        <v>19972</v>
+      </c>
+      <c r="L72" t="n">
+        <v>19972</v>
+      </c>
+      <c r="M72" t="n">
+        <v>31788.41</v>
+      </c>
+      <c r="N72" t="n">
+        <v>19073.04</v>
+      </c>
+      <c r="O72" t="n">
+        <v>12715.36</v>
+      </c>
+      <c r="P72" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q72" t="n">
+        <v>8</v>
+      </c>
+      <c r="R72" t="n">
+        <v>34.21</v>
+      </c>
+      <c r="S72" t="n">
+        <v>929.08</v>
+      </c>
+      <c r="T72" t="n">
+        <v>30.89</v>
+      </c>
+      <c r="U72" t="n">
+        <v>557.45</v>
+      </c>
+      <c r="V72" t="n">
+        <v>371.63</v>
+      </c>
+      <c r="W72" t="n">
+        <v>20.8</v>
+      </c>
+      <c r="X72" t="n">
+        <v>13.27</v>
+      </c>
+      <c r="Y72" t="n">
+        <v>34.21</v>
+      </c>
+      <c r="Z72" t="n">
+        <v>0.449</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>2026-01-20 10:32:33</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>MOUSE_SESSION</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>Mouse session - Score: 0.446</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>EM003</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>MOUSE_20260120_003</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>INFO</t>
+        </is>
+      </c>
+      <c r="G73" t="n">
+        <v>0</v>
+      </c>
+      <c r="H73" t="inlineStr">
+        <is>
+          <t>2026-01-20</t>
+        </is>
+      </c>
+      <c r="I73" t="inlineStr">
+        <is>
+          <t>10:32:33</t>
+        </is>
+      </c>
+      <c r="J73" t="inlineStr">
+        <is>
+          <t>Mouse</t>
+        </is>
+      </c>
+      <c r="K73" t="n">
+        <v>27479</v>
+      </c>
+      <c r="L73" t="n">
+        <v>27479</v>
+      </c>
+      <c r="M73" t="n">
+        <v>7148.02</v>
+      </c>
+      <c r="N73" t="n">
+        <v>4288.81</v>
+      </c>
+      <c r="O73" t="n">
+        <v>2859.21</v>
+      </c>
+      <c r="P73" t="n">
+        <v>11</v>
+      </c>
+      <c r="Q73" t="n">
+        <v>6</v>
+      </c>
+      <c r="R73" t="n">
+        <v>137.23</v>
+      </c>
+      <c r="S73" t="n">
+        <v>52.09</v>
+      </c>
+      <c r="T73" t="n">
+        <v>35.29</v>
+      </c>
+      <c r="U73" t="n">
+        <v>31.25</v>
+      </c>
+      <c r="V73" t="n">
+        <v>20.84</v>
+      </c>
+      <c r="W73" t="n">
+        <v>4.54</v>
+      </c>
+      <c r="X73" t="n">
+        <v>28.3</v>
+      </c>
+      <c r="Y73" t="n">
+        <v>137.23</v>
+      </c>
+      <c r="Z73" t="n">
+        <v>0.446</v>
       </c>
     </row>
   </sheetData>
@@ -6642,20 +8656,20 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>2026-01-01 14:31:00</t>
+          <t>2026-01-01 08:28:00</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>2026-01-01 19:35:31</t>
+          <t>2026-01-01 11:04:45</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>18271</v>
+        <v>9405</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>05:04:00</t>
+          <t>02:36:00</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
@@ -6672,7 +8686,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>BROWSER_20260102_00</t>
+          <t>BROWSER_20260101_01</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -6682,25 +8696,25 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>2026-01-02 15:31:00</t>
+          <t>2026-01-01 14:45:00</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2026-01-02 18:41:17</t>
+          <t>2026-01-01 18:09:57</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>11417</v>
+        <v>12297</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>03:10:00</t>
+          <t>03:24:00</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>2026-01-02</t>
+          <t>2026-01-01</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
@@ -6712,7 +8726,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>BROWSER_20260102_01</t>
+          <t>BROWSER_20260102_00</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -6722,20 +8736,20 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>2026-01-02 10:28:00</t>
+          <t>2026-01-02 12:49:00</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>2026-01-02 13:48:09</t>
+          <t>2026-01-02 18:07:54</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>12009</v>
+        <v>19134</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>03:20:00</t>
+          <t>05:18:00</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
@@ -6762,20 +8776,20 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>2026-01-05 08:41:00</t>
+          <t>2026-01-05 09:54:00</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2026-01-05 15:26:00</t>
+          <t>2026-01-05 15:35:26</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>24300</v>
+        <v>20486</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>06:45:00</t>
+          <t>05:41:00</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
@@ -6802,20 +8816,20 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>2026-01-06 13:38:00</t>
+          <t>2026-01-06 15:31:00</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>2026-01-06 20:29:17</t>
+          <t>2026-01-06 22:29:42</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>24677</v>
+        <v>25122</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>06:51:00</t>
+          <t>06:58:00</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
@@ -6842,20 +8856,20 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>2026-01-07 09:02:00</t>
+          <t>2026-01-07 12:33:00</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>2026-01-07 15:10:38</t>
+          <t>2026-01-07 16:02:07</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>22118</v>
+        <v>12547</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>06:08:00</t>
+          <t>03:29:00</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
@@ -6872,7 +8886,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>BROWSER_20260108_00</t>
+          <t>BROWSER_20260107_01</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -6882,25 +8896,25 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>2026-01-08 12:15:00</t>
+          <t>2026-01-07 11:50:00</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>2026-01-08 15:12:34</t>
+          <t>2026-01-07 14:28:27</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>10654</v>
+        <v>9507</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>02:57:00</t>
+          <t>02:38:00</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>2026-01-08</t>
+          <t>2026-01-07</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
@@ -6912,7 +8926,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>BROWSER_20260108_01</t>
+          <t>BROWSER_20260108_00</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -6922,20 +8936,20 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>2026-01-08 11:46:00</t>
+          <t>2026-01-08 15:46:00</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>2026-01-08 14:30:35</t>
+          <t>2026-01-08 18:42:44</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>9875</v>
+        <v>10604</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>02:44:00</t>
+          <t>02:56:00</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
@@ -6952,7 +8966,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>BROWSER_20260109_00</t>
+          <t>BROWSER_20260108_01</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -6962,25 +8976,25 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>2026-01-09 13:18:00</t>
+          <t>2026-01-08 12:32:00</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>2026-01-09 18:33:28</t>
+          <t>2026-01-08 15:38:28</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>18928</v>
+        <v>11188</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>05:15:00</t>
+          <t>03:06:00</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>2026-01-09</t>
+          <t>2026-01-08</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
@@ -6992,7 +9006,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>BROWSER_20260112_00</t>
+          <t>BROWSER_20260109_00</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -7002,25 +9016,25 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>2026-01-12 09:58:00</t>
+          <t>2026-01-09 12:43:00</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>2026-01-12 13:02:53</t>
+          <t>2026-01-09 19:01:25</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>11093</v>
+        <v>22705</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>03:04:00</t>
+          <t>06:18:00</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>2026-01-12</t>
+          <t>2026-01-09</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
@@ -7032,7 +9046,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>BROWSER_20260112_01</t>
+          <t>BROWSER_20260112_00</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -7042,20 +9056,20 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>2026-01-12 13:45:00</t>
+          <t>2026-01-12 13:59:00</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>2026-01-12 17:14:20</t>
+          <t>2026-01-12 16:30:01</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>12560</v>
+        <v>9061</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>03:29:00</t>
+          <t>02:31:00</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
@@ -7072,7 +9086,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>BROWSER_20260113_00</t>
+          <t>BROWSER_20260112_01</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -7082,25 +9096,25 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>2026-01-13 10:13:00</t>
+          <t>2026-01-12 09:10:00</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>2026-01-13 12:59:29</t>
+          <t>2026-01-12 12:28:51</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>9989</v>
+        <v>11931</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>02:46:00</t>
+          <t>03:18:00</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>2026-01-13</t>
+          <t>2026-01-12</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
@@ -7112,7 +9126,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>BROWSER_20260113_01</t>
+          <t>BROWSER_20260113_00</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -7122,20 +9136,20 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>2026-01-13 12:02:00</t>
+          <t>2026-01-13 11:22:00</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>2026-01-13 15:22:42</t>
+          <t>2026-01-13 17:50:14</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>12042</v>
+        <v>23294</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>03:20:00</t>
+          <t>06:28:00</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
@@ -7162,20 +9176,20 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>2026-01-14 15:10:00</t>
+          <t>2026-01-14 15:23:00</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>2026-01-14 20:54:41</t>
+          <t>2026-01-14 18:13:14</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>20681</v>
+        <v>10214</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>05:44:00</t>
+          <t>02:50:00</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
@@ -7192,7 +9206,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>BROWSER_20260115_00</t>
+          <t>BROWSER_20260114_01</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -7202,25 +9216,25 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>2026-01-15 13:50:00</t>
+          <t>2026-01-14 10:54:00</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>2026-01-15 19:53:56</t>
+          <t>2026-01-14 13:29:49</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>21836</v>
+        <v>9349</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>06:03:00</t>
+          <t>02:35:00</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>2026-01-15</t>
+          <t>2026-01-14</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
@@ -7232,7 +9246,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>BROWSER_20260116_00</t>
+          <t>BROWSER_20260115_00</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -7242,25 +9256,25 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>2026-01-16 08:44:00</t>
+          <t>2026-01-15 13:12:00</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>2026-01-16 14:02:49</t>
+          <t>2026-01-15 20:07:32</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>19129</v>
+        <v>24932</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>05:18:00</t>
+          <t>06:55:00</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>2026-01-16</t>
+          <t>2026-01-15</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
@@ -7272,7 +9286,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>BROWSER_20260119_00</t>
+          <t>BROWSER_20260116_00</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -7282,25 +9296,25 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>2026-01-19 13:56:00</t>
+          <t>2026-01-16 13:38:00</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>2026-01-19 20:48:09</t>
+          <t>2026-01-16 16:55:42</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>24729</v>
+        <v>11862</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>06:52:00</t>
+          <t>03:17:00</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>2026-01-19</t>
+          <t>2026-01-16</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
@@ -7312,7 +9326,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>BROWSER_20260120_00</t>
+          <t>BROWSER_20260116_01</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -7322,25 +9336,25 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>2026-01-20 14:49:00</t>
+          <t>2026-01-16 09:08:00</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>2026-01-20 18:16:55</t>
+          <t>2026-01-16 12:28:55</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>12475</v>
+        <v>12055</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>03:27:00</t>
+          <t>03:20:00</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>2026-01-20</t>
+          <t>2026-01-16</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
@@ -7352,7 +9366,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>BROWSER_20260120_01</t>
+          <t>BROWSER_20260119_00</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -7362,25 +9376,25 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>2026-01-20 11:09:00</t>
+          <t>2026-01-19 15:20:00</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>2026-01-20 14:01:21</t>
+          <t>2026-01-19 21:45:17</t>
         </is>
       </c>
       <c r="E20" t="n">
-        <v>10341</v>
+        <v>23117</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>02:52:00</t>
+          <t>06:25:00</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>2026-01-20</t>
+          <t>2026-01-19</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
@@ -7392,7 +9406,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>BROWSER_20260121_00</t>
+          <t>BROWSER_20260120_00</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -7402,25 +9416,25 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>2026-01-21 10:37:00</t>
+          <t>2026-01-20 10:11:00</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>2026-01-21 13:35:28</t>
+          <t>2026-01-20 13:07:10</t>
         </is>
       </c>
       <c r="E21" t="n">
-        <v>10708</v>
+        <v>10570</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>02:58:00</t>
+          <t>02:56:00</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>2026-01-21</t>
+          <t>2026-01-20</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
@@ -7432,7 +9446,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>BROWSER_20260121_01</t>
+          <t>BROWSER_20260120_01</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -7442,25 +9456,25 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>2026-01-21 14:25:00</t>
+          <t>2026-01-20 10:25:00</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>2026-01-21 17:52:41</t>
+          <t>2026-01-20 13:30:51</t>
         </is>
       </c>
       <c r="E22" t="n">
-        <v>12461</v>
+        <v>11151</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>03:27:00</t>
+          <t>03:05:00</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>2026-01-21</t>
+          <t>2026-01-20</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
@@ -7472,7 +9486,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>BROWSER_20260122_00</t>
+          <t>BROWSER_20260121_00</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -7482,25 +9496,25 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>2026-01-22 11:59:00</t>
+          <t>2026-01-21 13:03:00</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>2026-01-22 14:53:56</t>
+          <t>2026-01-21 18:11:06</t>
         </is>
       </c>
       <c r="E23" t="n">
-        <v>10496</v>
+        <v>18486</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>02:54:00</t>
+          <t>05:08:00</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>2026-01-22</t>
+          <t>2026-01-21</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
@@ -7512,7 +9526,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>BROWSER_20260122_01</t>
+          <t>BROWSER_20260122_00</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -7522,20 +9536,20 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>2026-01-22 13:11:00</t>
+          <t>2026-01-22 12:22:00</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>2026-01-22 16:09:06</t>
+          <t>2026-01-22 17:43:35</t>
         </is>
       </c>
       <c r="E24" t="n">
-        <v>10686</v>
+        <v>19295</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>02:58:00</t>
+          <t>05:21:00</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
@@ -7562,20 +9576,20 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>2026-01-23 10:08:00</t>
+          <t>2026-01-23 15:06:00</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>2026-01-23 13:32:31</t>
+          <t>2026-01-23 20:41:21</t>
         </is>
       </c>
       <c r="E25" t="n">
-        <v>12271</v>
+        <v>20121</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>03:24:00</t>
+          <t>05:35:00</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
@@ -7592,7 +9606,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>BROWSER_20260123_01</t>
+          <t>BROWSER_20260126_00</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -7602,25 +9616,25 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>2026-01-23 10:50:00</t>
+          <t>2026-01-26 12:29:00</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>2026-01-23 13:37:19</t>
+          <t>2026-01-26 15:32:04</t>
         </is>
       </c>
       <c r="E26" t="n">
-        <v>10039</v>
+        <v>10984</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>02:47:00</t>
+          <t>03:03:00</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>2026-01-23</t>
+          <t>2026-01-26</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
@@ -7632,7 +9646,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>BROWSER_20260126_00</t>
+          <t>BROWSER_20260126_01</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -7642,20 +9656,20 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>2026-01-26 15:16:00</t>
+          <t>2026-01-26 10:19:00</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>2026-01-26 21:27:05</t>
+          <t>2026-01-26 13:29:40</t>
         </is>
       </c>
       <c r="E27" t="n">
-        <v>22265</v>
+        <v>11440</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>06:11:00</t>
+          <t>03:10:00</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
